--- a/data-raw/bases_limpias/ministros.xlsx
+++ b/data-raw/bases_limpias/ministros.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_limpias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C325AA4-A17C-4109-A93F-4DD29CE375F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DBB3B9-FCBD-4D30-8EC4-36B386E9B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD853266-97D9-4F4D-A0EE-207E1324CE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$578</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -921,9 +924,6 @@
     <t>MUNIZ, Susana</t>
   </si>
   <si>
-    <t xml:space="preserve">LARRANAGA, Jorge </t>
-  </si>
-  <si>
     <t>VAZQUEZ, Eduardo</t>
   </si>
   <si>
@@ -1296,9 +1296,6 @@
     <t>AMORIN BATLLE, Jose</t>
   </si>
   <si>
-    <t>MUJICA, Jose</t>
-  </si>
-  <si>
     <t>DIAZ, Jose E.</t>
   </si>
   <si>
@@ -1405,6 +1402,12 @@
   </si>
   <si>
     <t>SENDIC, Raul</t>
+  </si>
+  <si>
+    <t>MUJICA CORDANO, Jose</t>
+  </si>
+  <si>
+    <t>LARRANAGA, Jorge W.</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FEA7ED-D5DA-4B7E-86E1-4D72D2305CA4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="D584" sqref="D584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,9 +1834,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1850,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1870,9 +1874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1890,9 +1894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1910,9 +1914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1930,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1970,9 +1974,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1990,9 +1994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -2010,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2050,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2170,9 +2174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
@@ -2190,9 +2194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
@@ -2210,9 +2214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -2230,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2250,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2270,9 +2274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
@@ -2290,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -2310,9 +2314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
@@ -2330,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -2350,9 +2354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
@@ -2370,9 +2374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
@@ -2390,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -2450,9 +2454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>9</v>
@@ -2470,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -2510,9 +2514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -2530,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2570,9 +2574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>9</v>
@@ -2590,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2610,9 +2614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -2630,9 +2634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>9</v>
@@ -2650,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
@@ -2690,9 +2694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>9</v>
@@ -2710,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2730,9 +2734,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>14</v>
@@ -2750,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -2830,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -2870,9 +2874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>9</v>
@@ -2890,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
@@ -2930,9 +2934,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>9</v>
@@ -2950,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>291</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>50</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
@@ -3050,9 +3054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>9</v>
@@ -3070,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
@@ -3090,9 +3094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>9</v>
@@ -3110,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>20</v>
       </c>
@@ -3130,9 +3134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>9</v>
@@ -3150,9 +3154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>9</v>
@@ -3170,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
@@ -3190,9 +3194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>9</v>
@@ -3210,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -3230,9 +3234,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>9</v>
@@ -3250,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
@@ -3270,9 +3274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>9</v>
@@ -3290,9 +3294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>9</v>
@@ -3310,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>50</v>
       </c>
@@ -3350,9 +3354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>9</v>
@@ -3370,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
@@ -3390,9 +3394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>9</v>
@@ -3410,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
@@ -3430,9 +3434,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>9</v>
@@ -3450,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
@@ -3470,9 +3474,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>9</v>
@@ -3490,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>56</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>48</v>
       </c>
@@ -3530,9 +3534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>57</v>
@@ -3550,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>58</v>
       </c>
@@ -3570,9 +3574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>9</v>
@@ -3590,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>59</v>
       </c>
@@ -3610,9 +3614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>9</v>
@@ -3630,9 +3634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>9</v>
@@ -3650,9 +3654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>9</v>
@@ -3670,9 +3674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>9</v>
@@ -3690,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>60</v>
       </c>
@@ -3710,9 +3714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>9</v>
@@ -3730,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>61</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>62</v>
       </c>
@@ -3770,9 +3774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>57</v>
@@ -3790,9 +3794,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>57</v>
@@ -3810,9 +3814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>9</v>
@@ -3830,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -3850,9 +3854,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
@@ -3870,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>63</v>
       </c>
@@ -3890,9 +3894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>9</v>
@@ -3910,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>36</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>64</v>
       </c>
@@ -3950,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>65</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>66</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>67</v>
       </c>
@@ -4010,9 +4014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>9</v>
@@ -4030,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>62</v>
       </c>
@@ -4050,9 +4054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>9</v>
@@ -4070,9 +4074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>9</v>
@@ -4090,9 +4094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>9</v>
@@ -4110,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>68</v>
       </c>
@@ -4130,9 +4134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>14</v>
@@ -4150,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>38</v>
       </c>
@@ -4170,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>69</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>65</v>
       </c>
@@ -4210,9 +4214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>9</v>
@@ -4230,9 +4234,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>9</v>
@@ -4250,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>64</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>73</v>
       </c>
@@ -4290,9 +4294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>9</v>
@@ -4310,9 +4314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>9</v>
@@ -4330,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>68</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>62</v>
       </c>
@@ -4370,9 +4374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>14</v>
@@ -4390,9 +4394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>14</v>
@@ -4410,9 +4414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>14</v>
@@ -4430,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>65</v>
       </c>
@@ -4450,9 +4454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>9</v>
@@ -4470,9 +4474,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>9</v>
@@ -4490,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>75</v>
       </c>
@@ -4510,9 +4514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>9</v>
@@ -4530,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>76</v>
       </c>
@@ -4550,9 +4554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>9</v>
@@ -4570,9 +4574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>14</v>
@@ -4590,9 +4594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>14</v>
@@ -4610,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>68</v>
       </c>
@@ -4630,9 +4634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>14</v>
@@ -4650,9 +4654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>9</v>
@@ -4670,9 +4674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>9</v>
@@ -4690,9 +4694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>14</v>
@@ -4710,9 +4714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>14</v>
@@ -4730,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>63</v>
       </c>
@@ -4750,9 +4754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>9</v>
@@ -4770,9 +4774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>14</v>
@@ -4790,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>80</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>81</v>
       </c>
@@ -4830,9 +4834,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>9</v>
@@ -4850,9 +4854,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>14</v>
@@ -4870,9 +4874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>14</v>
@@ -4890,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>82</v>
       </c>
@@ -4910,9 +4914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>14</v>
@@ -4930,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>83</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>63</v>
       </c>
@@ -4970,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>84</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>85</v>
       </c>
@@ -5010,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>86</v>
       </c>
@@ -5030,9 +5034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>9</v>
@@ -5050,9 +5054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>14</v>
@@ -5070,9 +5074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>9</v>
@@ -5090,9 +5094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>9</v>
@@ -5110,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>87</v>
       </c>
@@ -5130,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>88</v>
       </c>
@@ -5150,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>89</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>90</v>
       </c>
@@ -5190,9 +5194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>9</v>
@@ -5210,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>80</v>
       </c>
@@ -5230,9 +5234,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>91</v>
@@ -5250,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>55</v>
       </c>
@@ -5270,9 +5274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>9</v>
@@ -5290,9 +5294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>9</v>
@@ -5310,9 +5314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>9</v>
@@ -5330,9 +5334,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>9</v>
@@ -5350,9 +5354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>9</v>
@@ -5370,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>92</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -5410,9 +5414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>9</v>
@@ -5430,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>94</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>95</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>96</v>
       </c>
@@ -5490,9 +5494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>91</v>
@@ -5510,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>97</v>
       </c>
@@ -5530,9 +5534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>9</v>
@@ -5550,9 +5554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>9</v>
@@ -5570,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>98</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>98</v>
       </c>
@@ -5630,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>99</v>
       </c>
@@ -5650,9 +5654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>9</v>
@@ -5670,9 +5674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>9</v>
@@ -5690,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>97</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>100</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>101</v>
       </c>
@@ -5750,9 +5754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>9</v>
@@ -5770,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>102</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>103</v>
       </c>
@@ -5810,9 +5814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>9</v>
@@ -5830,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>97</v>
       </c>
@@ -5850,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>104</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>292</v>
       </c>
@@ -5890,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>105</v>
       </c>
@@ -5910,9 +5914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>9</v>
@@ -5930,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>96</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>106</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>292</v>
       </c>
@@ -5990,9 +5994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>9</v>
@@ -6010,9 +6014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>9</v>
@@ -6030,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>107</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>108</v>
       </c>
@@ -6070,9 +6074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>9</v>
@@ -6090,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>109</v>
       </c>
@@ -6110,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>111</v>
       </c>
@@ -6130,9 +6134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>9</v>
@@ -6150,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>112</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>104</v>
       </c>
@@ -6190,9 +6194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>9</v>
@@ -6210,9 +6214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>9</v>
@@ -6230,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>65</v>
       </c>
@@ -6250,9 +6254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>9</v>
@@ -6270,9 +6274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>9</v>
@@ -6290,9 +6294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>9</v>
@@ -6310,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>113</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>103</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>114</v>
       </c>
@@ -6370,9 +6374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>9</v>
@@ -6390,9 +6394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>9</v>
@@ -6410,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>115</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>116</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>108</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>96</v>
       </c>
@@ -6490,9 +6494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>9</v>
@@ -6510,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>117</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>118</v>
       </c>
@@ -6550,9 +6554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>9</v>
@@ -6570,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>119</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>119</v>
       </c>
@@ -6610,9 +6614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>9</v>
@@ -6630,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>120</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>121</v>
       </c>
@@ -6670,9 +6674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>9</v>
@@ -6690,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>122</v>
       </c>
@@ -6710,9 +6714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>9</v>
@@ -6730,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>107</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>123</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>124</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>125</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>126</v>
       </c>
@@ -6830,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>122</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>127</v>
       </c>
@@ -6870,9 +6874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>9</v>
@@ -6890,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>103</v>
       </c>
@@ -6910,9 +6914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>9</v>
@@ -6930,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>128</v>
       </c>
@@ -6950,9 +6954,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>9</v>
@@ -6970,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>124</v>
       </c>
@@ -6990,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>122</v>
       </c>
@@ -7010,9 +7014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>9</v>
@@ -7030,9 +7034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>9</v>
@@ -7050,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>125</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>105</v>
       </c>
@@ -7090,9 +7094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>9</v>
@@ -7110,9 +7114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>9</v>
@@ -7130,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>129</v>
       </c>
@@ -7150,9 +7154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>9</v>
@@ -7170,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>130</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>131</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>132</v>
       </c>
@@ -7230,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>133</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>134</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>135</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>136</v>
       </c>
@@ -7310,9 +7314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>14</v>
@@ -7330,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>137</v>
       </c>
@@ -7350,9 +7354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>14</v>
@@ -7370,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>131</v>
       </c>
@@ -7390,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>138</v>
       </c>
@@ -7410,9 +7414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>14</v>
@@ -7430,9 +7434,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>14</v>
@@ -7450,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>138</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>139</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>140</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>141</v>
       </c>
@@ -7530,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>142</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>143</v>
       </c>
@@ -7570,9 +7574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>14</v>
@@ -7590,9 +7594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>14</v>
@@ -7610,9 +7614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>14</v>
@@ -7630,9 +7634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>14</v>
@@ -7650,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>144</v>
       </c>
@@ -7670,9 +7674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>14</v>
@@ -7690,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>145</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>146</v>
       </c>
@@ -7730,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>147</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>148</v>
       </c>
@@ -7770,9 +7774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>14</v>
@@ -7790,9 +7794,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>14</v>
@@ -7810,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>149</v>
       </c>
@@ -7830,9 +7834,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>14</v>
@@ -7850,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>150</v>
       </c>
@@ -7870,9 +7874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>9</v>
@@ -7890,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>152</v>
       </c>
@@ -7910,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>154</v>
       </c>
@@ -7930,9 +7934,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>9</v>
@@ -7950,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>157</v>
       </c>
@@ -7970,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>158</v>
       </c>
@@ -7990,9 +7994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>9</v>
@@ -8010,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>159</v>
       </c>
@@ -8030,9 +8034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>9</v>
@@ -8050,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>161</v>
       </c>
@@ -8070,9 +8074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>9</v>
@@ -8090,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>163</v>
       </c>
@@ -8110,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>124</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>164</v>
       </c>
@@ -8150,9 +8154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>9</v>
@@ -8170,9 +8174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>9</v>
@@ -8190,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>152</v>
       </c>
@@ -8210,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>73</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>165</v>
       </c>
@@ -8250,9 +8254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>9</v>
@@ -8270,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>154</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>166</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>167</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>168</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>169</v>
       </c>
@@ -8370,9 +8374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>9</v>
@@ -8390,9 +8394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>57</v>
@@ -8410,9 +8414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>9</v>
@@ -8430,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>170</v>
       </c>
@@ -8450,9 +8454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>9</v>
@@ -8470,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>171</v>
       </c>
@@ -8490,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>172</v>
       </c>
@@ -8510,9 +8514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>9</v>
@@ -8530,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>173</v>
       </c>
@@ -8550,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>169</v>
       </c>
@@ -8570,9 +8574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>9</v>
@@ -8590,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>174</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>175</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>120</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>176</v>
       </c>
@@ -8670,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>168</v>
       </c>
@@ -8690,9 +8694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>9</v>
@@ -8710,9 +8714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>57</v>
@@ -8730,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>150</v>
       </c>
@@ -8750,9 +8754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>9</v>
@@ -8770,9 +8774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>9</v>
@@ -8790,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>165</v>
       </c>
@@ -8810,9 +8814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>9</v>
@@ -8830,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>177</v>
       </c>
@@ -8850,9 +8854,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>9</v>
@@ -8870,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>176</v>
       </c>
@@ -8890,9 +8894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>9</v>
@@ -8910,9 +8914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>9</v>
@@ -8930,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>178</v>
       </c>
@@ -8950,9 +8954,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>9</v>
@@ -8970,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>176</v>
       </c>
@@ -8990,9 +8994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>9</v>
@@ -9010,9 +9014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>9</v>
@@ -9030,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>179</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>180</v>
       </c>
@@ -9070,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>174</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>181</v>
       </c>
@@ -9110,9 +9114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>9</v>
@@ -9130,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>183</v>
       </c>
@@ -9150,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>164</v>
       </c>
@@ -9170,9 +9174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>9</v>
@@ -9190,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>184</v>
       </c>
@@ -9210,9 +9214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>9</v>
@@ -9230,9 +9234,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>9</v>
@@ -9250,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>185</v>
       </c>
@@ -9270,9 +9274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>14</v>
@@ -9290,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>157</v>
       </c>
@@ -9310,9 +9314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>57</v>
@@ -9330,9 +9334,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>110</v>
@@ -9350,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>170</v>
       </c>
@@ -9370,9 +9374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>9</v>
@@ -9390,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>36</v>
       </c>
@@ -9410,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>120</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>146</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>186</v>
       </c>
@@ -9470,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>170</v>
       </c>
@@ -9490,9 +9494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>57</v>
@@ -9510,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>187</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>188</v>
       </c>
@@ -9550,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>189</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>190</v>
       </c>
@@ -9590,9 +9594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>9</v>
@@ -9610,9 +9614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>9</v>
@@ -9630,9 +9634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>9</v>
@@ -9650,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>192</v>
       </c>
@@ -9670,9 +9674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>14</v>
@@ -9690,9 +9694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>9</v>
@@ -9710,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>193</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>187</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>195</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>196</v>
       </c>
@@ -9790,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>198</v>
       </c>
@@ -9810,9 +9814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>9</v>
@@ -9830,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>199</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>200</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>201</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>180</v>
       </c>
@@ -9910,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>202</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>203</v>
       </c>
@@ -9950,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>204</v>
       </c>
@@ -9970,7 +9974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>205</v>
       </c>
@@ -9990,9 +9994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>14</v>
@@ -10010,9 +10014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>14</v>
@@ -10030,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>206</v>
       </c>
@@ -10050,9 +10054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>14</v>
@@ -10070,9 +10074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>14</v>
@@ -10090,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>207</v>
       </c>
@@ -10110,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>208</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>293</v>
       </c>
@@ -10150,9 +10154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>9</v>
@@ -10170,9 +10174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>9</v>
@@ -10190,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>210</v>
       </c>
@@ -10210,9 +10214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>14</v>
@@ -10230,7 +10234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>211</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>212</v>
       </c>
@@ -10270,9 +10274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>14</v>
@@ -10290,9 +10294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>14</v>
@@ -10310,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>213</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>214</v>
       </c>
@@ -10350,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>215</v>
       </c>
@@ -10370,9 +10374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>14</v>
@@ -10390,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>216</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>217</v>
       </c>
@@ -10430,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>145</v>
       </c>
@@ -10450,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>218</v>
       </c>
@@ -10470,9 +10474,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>14</v>
@@ -10490,9 +10494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>9</v>
@@ -10510,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>219</v>
       </c>
@@ -10530,9 +10534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>14</v>
@@ -10550,9 +10554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>14</v>
@@ -10570,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>220</v>
       </c>
@@ -10590,9 +10594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>14</v>
@@ -10610,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>145</v>
       </c>
@@ -10630,9 +10634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>14</v>
@@ -10650,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>221</v>
       </c>
@@ -10670,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>222</v>
       </c>
@@ -10690,7 +10694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>223</v>
       </c>
@@ -10710,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>224</v>
       </c>
@@ -10730,7 +10734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>225</v>
       </c>
@@ -10750,9 +10754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>14</v>
@@ -10770,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>207</v>
       </c>
@@ -10790,9 +10794,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>14</v>
@@ -10810,9 +10814,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>9</v>
@@ -10830,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>226</v>
       </c>
@@ -10850,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>227</v>
       </c>
@@ -10870,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>228</v>
       </c>
@@ -10890,9 +10894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>9</v>
@@ -10910,9 +10914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>9</v>
@@ -10930,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>225</v>
       </c>
@@ -10950,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>229</v>
       </c>
@@ -10970,9 +10974,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>9</v>
@@ -10990,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>230</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>231</v>
       </c>
@@ -11030,9 +11034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>9</v>
@@ -11050,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>201</v>
       </c>
@@ -11070,9 +11074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>14</v>
@@ -11090,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>232</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>233</v>
       </c>
@@ -11130,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>234</v>
       </c>
@@ -11150,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>201</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>235</v>
       </c>
@@ -11190,9 +11194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>9</v>
@@ -11210,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>213</v>
       </c>
@@ -11230,9 +11234,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>57</v>
@@ -11250,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>215</v>
       </c>
@@ -11270,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>230</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>225</v>
       </c>
@@ -11310,9 +11314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>9</v>
@@ -11330,9 +11334,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>14</v>
@@ -11350,9 +11354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>9</v>
@@ -11370,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>237</v>
       </c>
@@ -11390,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>208</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>238</v>
       </c>
@@ -11430,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>237</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>239</v>
       </c>
@@ -11470,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>202</v>
       </c>
@@ -11490,9 +11494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>9</v>
@@ -11510,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>239</v>
       </c>
@@ -11530,9 +11534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>57</v>
@@ -11550,9 +11554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>57</v>
@@ -11570,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>240</v>
       </c>
@@ -11590,9 +11594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>9</v>
@@ -11610,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>241</v>
       </c>
@@ -11630,9 +11634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>9</v>
@@ -11650,9 +11654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>57</v>
@@ -11670,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>242</v>
       </c>
@@ -11690,9 +11694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>9</v>
@@ -11710,9 +11714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>9</v>
@@ -11730,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>243</v>
       </c>
@@ -11750,9 +11754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>9</v>
@@ -11770,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>244</v>
       </c>
@@ -11790,7 +11794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>245</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>247</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>249</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>250</v>
       </c>
@@ -11870,9 +11874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>246</v>
@@ -11890,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>251</v>
       </c>
@@ -11910,9 +11914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>246</v>
@@ -11930,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>252</v>
       </c>
@@ -11950,9 +11954,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>246</v>
@@ -11970,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>253</v>
       </c>
@@ -11990,9 +11994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>246</v>
@@ -12010,9 +12014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>246</v>
@@ -12030,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>255</v>
       </c>
@@ -12050,9 +12054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>246</v>
@@ -12070,9 +12074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>246</v>
@@ -12090,9 +12094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>246</v>
@@ -12110,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>256</v>
       </c>
@@ -12130,9 +12134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>246</v>
@@ -12150,9 +12154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>246</v>
@@ -12170,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>257</v>
       </c>
@@ -12190,9 +12194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>246</v>
@@ -12210,9 +12214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>246</v>
@@ -12230,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>258</v>
       </c>
@@ -12250,9 +12254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B523" s="5" t="s">
         <v>246</v>
@@ -12270,9 +12274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>246</v>
@@ -12290,9 +12294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>246</v>
@@ -12310,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>259</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>260</v>
       </c>
@@ -12350,7 +12354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>261</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>262</v>
       </c>
@@ -12390,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>263</v>
       </c>
@@ -12410,9 +12414,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>246</v>
@@ -12430,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>264</v>
       </c>
@@ -12450,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>253</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>265</v>
       </c>
@@ -12490,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>266</v>
       </c>
@@ -12510,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>267</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>268</v>
       </c>
@@ -12550,9 +12554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>246</v>
@@ -12570,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>269</v>
       </c>
@@ -12590,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>266</v>
       </c>
@@ -12610,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>294</v>
       </c>
@@ -12630,9 +12634,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>246</v>
@@ -12650,9 +12654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>246</v>
@@ -12670,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>270</v>
       </c>
@@ -12690,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>271</v>
       </c>
@@ -12710,9 +12714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>246</v>
@@ -12730,9 +12734,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>246</v>
@@ -12750,9 +12754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>246</v>
@@ -12770,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>247</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>249</v>
       </c>
@@ -12810,9 +12814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>246</v>
@@ -12830,9 +12834,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>246</v>
@@ -12850,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>272</v>
       </c>
@@ -12870,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>273</v>
       </c>
@@ -12890,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>274</v>
       </c>
@@ -12910,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>253</v>
       </c>
@@ -12930,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>275</v>
       </c>
@@ -12950,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>276</v>
       </c>
@@ -12970,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>277</v>
       </c>
@@ -12990,9 +12994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>246</v>
@@ -13010,9 +13014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>246</v>
@@ -13030,9 +13034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>246</v>
@@ -13050,9 +13054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>246</v>
@@ -13070,9 +13074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>14</v>
@@ -13088,7 +13092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>278</v>
       </c>
@@ -13106,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>279</v>
       </c>
@@ -13124,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>280</v>
       </c>
@@ -13142,9 +13146,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>9</v>
@@ -13160,7 +13164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>281</v>
       </c>
@@ -13180,7 +13184,7 @@
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
-        <v>295</v>
+        <v>456</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>14</v>
@@ -13196,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>282</v>
       </c>
@@ -13216,7 +13220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>283</v>
       </c>
@@ -13234,7 +13238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>284</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>286</v>
       </c>
@@ -13270,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>288</v>
       </c>
@@ -13288,9 +13292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>9</v>
@@ -13306,7 +13310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>289</v>
       </c>
@@ -13324,9 +13328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>9</v>
@@ -13343,6 +13347,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I578" xr:uid="{7A791307-92B1-4EBC-AA24-B3AE4E056C69}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="LARRANAGA, Jorge"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/bases_limpias/ministros.xlsx
+++ b/data-raw/bases_limpias/ministros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_limpias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DBB3B9-FCBD-4D30-8EC4-36B386E9B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2805F267-2F01-4CA9-AB93-6562AE560884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD853266-97D9-4F4D-A0EE-207E1324CE3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="458">
   <si>
     <t>politico</t>
   </si>
@@ -1408,6 +1408,9 @@
   </si>
   <si>
     <t>LARRANAGA, Jorge W.</t>
+  </si>
+  <si>
+    <t>Titular</t>
   </si>
 </sst>
 </file>
@@ -1792,11 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FEA7ED-D5DA-4B7E-86E1-4D72D2305CA4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D584" sqref="D584"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>384</v>
       </c>
@@ -1850,11 +1852,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>457</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1870,11 +1875,14 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>457</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>295</v>
       </c>
@@ -1890,11 +1898,14 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" t="s">
+        <v>457</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>424</v>
       </c>
@@ -1910,11 +1921,14 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
+      <c r="G5" t="s">
+        <v>457</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>385</v>
       </c>
@@ -1930,11 +1944,14 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
+      <c r="G6" t="s">
+        <v>457</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1950,11 +1967,14 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
+      <c r="G7" t="s">
+        <v>457</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1970,11 +1990,14 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
+      <c r="G8" t="s">
+        <v>457</v>
+      </c>
       <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>384</v>
       </c>
@@ -1990,11 +2013,14 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
+      <c r="G9" t="s">
+        <v>457</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>295</v>
       </c>
@@ -2010,11 +2036,14 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
+      <c r="G10" t="s">
+        <v>457</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2030,11 +2059,14 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
+      <c r="G11" t="s">
+        <v>457</v>
+      </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2050,11 +2082,14 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
+      <c r="G12" t="s">
+        <v>457</v>
+      </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2070,11 +2105,14 @@
       <c r="F13" t="s">
         <v>23</v>
       </c>
+      <c r="G13" t="s">
+        <v>457</v>
+      </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2090,11 +2128,14 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
+      <c r="G14" t="s">
+        <v>457</v>
+      </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2110,11 +2151,14 @@
       <c r="F15" t="s">
         <v>21</v>
       </c>
+      <c r="G15" t="s">
+        <v>457</v>
+      </c>
       <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2130,11 +2174,14 @@
       <c r="F16" t="s">
         <v>27</v>
       </c>
+      <c r="G16" t="s">
+        <v>457</v>
+      </c>
       <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2150,11 +2197,14 @@
       <c r="F17" t="s">
         <v>16</v>
       </c>
+      <c r="G17" t="s">
+        <v>457</v>
+      </c>
       <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2170,11 +2220,14 @@
       <c r="F18" t="s">
         <v>21</v>
       </c>
+      <c r="G18" t="s">
+        <v>457</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>386</v>
       </c>
@@ -2190,11 +2243,14 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
+      <c r="G19" t="s">
+        <v>457</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>376</v>
       </c>
@@ -2210,11 +2266,14 @@
       <c r="F20" t="s">
         <v>21</v>
       </c>
+      <c r="G20" t="s">
+        <v>457</v>
+      </c>
       <c r="I20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>334</v>
       </c>
@@ -2230,11 +2289,14 @@
       <c r="F21" t="s">
         <v>27</v>
       </c>
+      <c r="G21" t="s">
+        <v>457</v>
+      </c>
       <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2250,11 +2312,14 @@
       <c r="F22" t="s">
         <v>23</v>
       </c>
+      <c r="G22" t="s">
+        <v>457</v>
+      </c>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2270,11 +2335,14 @@
       <c r="F23" t="s">
         <v>13</v>
       </c>
+      <c r="G23" t="s">
+        <v>457</v>
+      </c>
       <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>384</v>
       </c>
@@ -2290,11 +2358,14 @@
       <c r="F24" t="s">
         <v>15</v>
       </c>
+      <c r="G24" t="s">
+        <v>457</v>
+      </c>
       <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -2310,11 +2381,14 @@
       <c r="F25" t="s">
         <v>33</v>
       </c>
+      <c r="G25" t="s">
+        <v>457</v>
+      </c>
       <c r="I25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>335</v>
       </c>
@@ -2330,11 +2404,14 @@
       <c r="F26" t="s">
         <v>23</v>
       </c>
+      <c r="G26" t="s">
+        <v>457</v>
+      </c>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -2350,11 +2427,14 @@
       <c r="F27" t="s">
         <v>35</v>
       </c>
+      <c r="G27" t="s">
+        <v>457</v>
+      </c>
       <c r="I27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>425</v>
       </c>
@@ -2370,11 +2450,14 @@
       <c r="F28" t="s">
         <v>27</v>
       </c>
+      <c r="G28" t="s">
+        <v>457</v>
+      </c>
       <c r="I28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>385</v>
       </c>
@@ -2390,11 +2473,14 @@
       <c r="F29" t="s">
         <v>16</v>
       </c>
+      <c r="G29" t="s">
+        <v>457</v>
+      </c>
       <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2410,11 +2496,14 @@
       <c r="F30" t="s">
         <v>27</v>
       </c>
+      <c r="G30" t="s">
+        <v>457</v>
+      </c>
       <c r="I30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2430,11 +2519,14 @@
       <c r="F31" t="s">
         <v>23</v>
       </c>
+      <c r="G31" t="s">
+        <v>457</v>
+      </c>
       <c r="I31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -2450,11 +2542,14 @@
       <c r="F32" t="s">
         <v>15</v>
       </c>
+      <c r="G32" t="s">
+        <v>457</v>
+      </c>
       <c r="I32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>387</v>
       </c>
@@ -2470,11 +2565,14 @@
       <c r="F33" t="s">
         <v>33</v>
       </c>
+      <c r="G33" t="s">
+        <v>457</v>
+      </c>
       <c r="I33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2490,11 +2588,14 @@
       <c r="F34" t="s">
         <v>16</v>
       </c>
+      <c r="G34" t="s">
+        <v>457</v>
+      </c>
       <c r="I34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -2510,11 +2611,14 @@
       <c r="F35" t="s">
         <v>35</v>
       </c>
+      <c r="G35" t="s">
+        <v>457</v>
+      </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>323</v>
       </c>
@@ -2530,11 +2634,14 @@
       <c r="F36" t="s">
         <v>33</v>
       </c>
+      <c r="G36" t="s">
+        <v>457</v>
+      </c>
       <c r="I36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -2550,11 +2657,14 @@
       <c r="F37" t="s">
         <v>13</v>
       </c>
+      <c r="G37" t="s">
+        <v>457</v>
+      </c>
       <c r="I37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2570,11 +2680,14 @@
       <c r="F38" t="s">
         <v>15</v>
       </c>
+      <c r="G38" t="s">
+        <v>457</v>
+      </c>
       <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>388</v>
       </c>
@@ -2590,11 +2703,14 @@
       <c r="F39" t="s">
         <v>33</v>
       </c>
+      <c r="G39" t="s">
+        <v>457</v>
+      </c>
       <c r="I39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2610,11 +2726,14 @@
       <c r="F40" t="s">
         <v>23</v>
       </c>
+      <c r="G40" t="s">
+        <v>457</v>
+      </c>
       <c r="I40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>386</v>
       </c>
@@ -2630,11 +2749,14 @@
       <c r="F41" t="s">
         <v>35</v>
       </c>
+      <c r="G41" t="s">
+        <v>457</v>
+      </c>
       <c r="I41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>334</v>
       </c>
@@ -2650,11 +2772,14 @@
       <c r="F42" t="s">
         <v>27</v>
       </c>
+      <c r="G42" t="s">
+        <v>457</v>
+      </c>
       <c r="I42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2670,11 +2795,14 @@
       <c r="F43" t="s">
         <v>16</v>
       </c>
+      <c r="G43" t="s">
+        <v>457</v>
+      </c>
       <c r="I43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
@@ -2690,11 +2818,14 @@
       <c r="F44" t="s">
         <v>27</v>
       </c>
+      <c r="G44" t="s">
+        <v>457</v>
+      </c>
       <c r="I44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>426</v>
       </c>
@@ -2710,11 +2841,14 @@
       <c r="F45" t="s">
         <v>13</v>
       </c>
+      <c r="G45" t="s">
+        <v>457</v>
+      </c>
       <c r="I45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2730,11 +2864,14 @@
       <c r="F46" t="s">
         <v>27</v>
       </c>
+      <c r="G46" t="s">
+        <v>457</v>
+      </c>
       <c r="I46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>424</v>
       </c>
@@ -2750,11 +2887,14 @@
       <c r="F47" t="s">
         <v>15</v>
       </c>
+      <c r="G47" t="s">
+        <v>457</v>
+      </c>
       <c r="I47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -2770,11 +2910,14 @@
       <c r="F48" t="s">
         <v>35</v>
       </c>
+      <c r="G48" t="s">
+        <v>457</v>
+      </c>
       <c r="I48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
@@ -2790,11 +2933,14 @@
       <c r="F49" t="s">
         <v>16</v>
       </c>
+      <c r="G49" t="s">
+        <v>457</v>
+      </c>
       <c r="I49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
@@ -2810,11 +2956,14 @@
       <c r="F50" t="s">
         <v>15</v>
       </c>
+      <c r="G50" t="s">
+        <v>457</v>
+      </c>
       <c r="I50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -2830,11 +2979,14 @@
       <c r="F51" t="s">
         <v>33</v>
       </c>
+      <c r="G51" t="s">
+        <v>457</v>
+      </c>
       <c r="I51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -2850,11 +3002,14 @@
       <c r="F52" t="s">
         <v>23</v>
       </c>
+      <c r="G52" t="s">
+        <v>457</v>
+      </c>
       <c r="I52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -2870,11 +3025,14 @@
       <c r="F53" t="s">
         <v>35</v>
       </c>
+      <c r="G53" t="s">
+        <v>457</v>
+      </c>
       <c r="I53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>324</v>
       </c>
@@ -2890,11 +3048,14 @@
       <c r="F54" t="s">
         <v>13</v>
       </c>
+      <c r="G54" t="s">
+        <v>457</v>
+      </c>
       <c r="I54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
@@ -2910,11 +3071,14 @@
       <c r="F55" t="s">
         <v>33</v>
       </c>
+      <c r="G55" t="s">
+        <v>457</v>
+      </c>
       <c r="I55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
@@ -2930,11 +3094,14 @@
       <c r="F56" t="s">
         <v>13</v>
       </c>
+      <c r="G56" t="s">
+        <v>457</v>
+      </c>
       <c r="I56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>336</v>
       </c>
@@ -2950,11 +3117,14 @@
       <c r="F57" t="s">
         <v>23</v>
       </c>
+      <c r="G57" t="s">
+        <v>457</v>
+      </c>
       <c r="I57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>291</v>
       </c>
@@ -2970,11 +3140,14 @@
       <c r="F58" t="s">
         <v>16</v>
       </c>
+      <c r="G58" t="s">
+        <v>457</v>
+      </c>
       <c r="I58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -2990,11 +3163,14 @@
       <c r="F59" t="s">
         <v>15</v>
       </c>
+      <c r="G59" t="s">
+        <v>457</v>
+      </c>
       <c r="I59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>50</v>
       </c>
@@ -3010,11 +3186,14 @@
       <c r="F60" t="s">
         <v>33</v>
       </c>
+      <c r="G60" t="s">
+        <v>457</v>
+      </c>
       <c r="I60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -3030,11 +3209,14 @@
       <c r="F61" t="s">
         <v>35</v>
       </c>
+      <c r="G61" t="s">
+        <v>457</v>
+      </c>
       <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
@@ -3050,11 +3232,14 @@
       <c r="F62" t="s">
         <v>27</v>
       </c>
+      <c r="G62" t="s">
+        <v>457</v>
+      </c>
       <c r="I62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>377</v>
       </c>
@@ -3070,11 +3255,14 @@
       <c r="F63" t="s">
         <v>13</v>
       </c>
+      <c r="G63" t="s">
+        <v>457</v>
+      </c>
       <c r="I63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
@@ -3090,11 +3278,14 @@
       <c r="F64" t="s">
         <v>16</v>
       </c>
+      <c r="G64" t="s">
+        <v>457</v>
+      </c>
       <c r="I64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>335</v>
       </c>
@@ -3110,11 +3301,14 @@
       <c r="F65" t="s">
         <v>23</v>
       </c>
+      <c r="G65" t="s">
+        <v>457</v>
+      </c>
       <c r="I65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>20</v>
       </c>
@@ -3130,11 +3324,14 @@
       <c r="F66" t="s">
         <v>23</v>
       </c>
+      <c r="G66" t="s">
+        <v>457</v>
+      </c>
       <c r="I66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>337</v>
       </c>
@@ -3150,11 +3347,14 @@
       <c r="F67" t="s">
         <v>16</v>
       </c>
+      <c r="G67" t="s">
+        <v>457</v>
+      </c>
       <c r="I67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>338</v>
       </c>
@@ -3170,11 +3370,14 @@
       <c r="F68" t="s">
         <v>23</v>
       </c>
+      <c r="G68" t="s">
+        <v>457</v>
+      </c>
       <c r="I68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
@@ -3190,11 +3393,14 @@
       <c r="F69" t="s">
         <v>27</v>
       </c>
+      <c r="G69" t="s">
+        <v>457</v>
+      </c>
       <c r="I69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>389</v>
       </c>
@@ -3210,11 +3416,14 @@
       <c r="F70" t="s">
         <v>33</v>
       </c>
+      <c r="G70" t="s">
+        <v>457</v>
+      </c>
       <c r="I70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -3230,11 +3439,14 @@
       <c r="F71" t="s">
         <v>35</v>
       </c>
+      <c r="G71" t="s">
+        <v>457</v>
+      </c>
       <c r="I71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>363</v>
       </c>
@@ -3250,11 +3462,14 @@
       <c r="F72" t="s">
         <v>13</v>
       </c>
+      <c r="G72" t="s">
+        <v>457</v>
+      </c>
       <c r="I72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
@@ -3270,11 +3485,14 @@
       <c r="F73" t="s">
         <v>23</v>
       </c>
+      <c r="G73" t="s">
+        <v>457</v>
+      </c>
       <c r="I73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>335</v>
       </c>
@@ -3290,11 +3508,14 @@
       <c r="F74" t="s">
         <v>16</v>
       </c>
+      <c r="G74" t="s">
+        <v>457</v>
+      </c>
       <c r="I74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>323</v>
       </c>
@@ -3310,11 +3531,14 @@
       <c r="F75" t="s">
         <v>23</v>
       </c>
+      <c r="G75" t="s">
+        <v>457</v>
+      </c>
       <c r="I75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
@@ -3330,11 +3554,14 @@
       <c r="F76" t="s">
         <v>15</v>
       </c>
+      <c r="G76" t="s">
+        <v>457</v>
+      </c>
       <c r="I76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>50</v>
       </c>
@@ -3350,11 +3577,14 @@
       <c r="F77" t="s">
         <v>15</v>
       </c>
+      <c r="G77" t="s">
+        <v>457</v>
+      </c>
       <c r="I77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>444</v>
       </c>
@@ -3370,11 +3600,14 @@
       <c r="F78" t="s">
         <v>35</v>
       </c>
+      <c r="G78" t="s">
+        <v>457</v>
+      </c>
       <c r="I78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
@@ -3390,11 +3623,14 @@
       <c r="F79" t="s">
         <v>16</v>
       </c>
+      <c r="G79" t="s">
+        <v>457</v>
+      </c>
       <c r="I79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>325</v>
       </c>
@@ -3410,11 +3646,14 @@
       <c r="F80" t="s">
         <v>27</v>
       </c>
+      <c r="G80" t="s">
+        <v>457</v>
+      </c>
       <c r="I80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
@@ -3430,11 +3669,14 @@
       <c r="F81" t="s">
         <v>13</v>
       </c>
+      <c r="G81" t="s">
+        <v>457</v>
+      </c>
       <c r="I81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>337</v>
       </c>
@@ -3450,11 +3692,14 @@
       <c r="F82" t="s">
         <v>23</v>
       </c>
+      <c r="G82" t="s">
+        <v>457</v>
+      </c>
       <c r="I82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
@@ -3470,11 +3715,14 @@
       <c r="F83" t="s">
         <v>15</v>
       </c>
+      <c r="G83" t="s">
+        <v>457</v>
+      </c>
       <c r="I83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>390</v>
       </c>
@@ -3490,11 +3738,14 @@
       <c r="F84" t="s">
         <v>33</v>
       </c>
+      <c r="G84" t="s">
+        <v>457</v>
+      </c>
       <c r="I84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>56</v>
       </c>
@@ -3510,11 +3761,14 @@
       <c r="F85" t="s">
         <v>35</v>
       </c>
+      <c r="G85" t="s">
+        <v>457</v>
+      </c>
       <c r="I85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>48</v>
       </c>
@@ -3530,11 +3784,14 @@
       <c r="F86" t="s">
         <v>13</v>
       </c>
+      <c r="G86" t="s">
+        <v>457</v>
+      </c>
       <c r="I86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>296</v>
       </c>
@@ -3550,11 +3807,14 @@
       <c r="F87" t="s">
         <v>13</v>
       </c>
+      <c r="G87" t="s">
+        <v>457</v>
+      </c>
       <c r="I87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>58</v>
       </c>
@@ -3570,11 +3830,14 @@
       <c r="F88" t="s">
         <v>23</v>
       </c>
+      <c r="G88" t="s">
+        <v>457</v>
+      </c>
       <c r="I88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>337</v>
       </c>
@@ -3590,11 +3853,14 @@
       <c r="F89" t="s">
         <v>16</v>
       </c>
+      <c r="G89" t="s">
+        <v>457</v>
+      </c>
       <c r="I89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>59</v>
       </c>
@@ -3610,11 +3876,14 @@
       <c r="F90" t="s">
         <v>15</v>
       </c>
+      <c r="G90" t="s">
+        <v>457</v>
+      </c>
       <c r="I90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>297</v>
       </c>
@@ -3630,11 +3899,14 @@
       <c r="F91" t="s">
         <v>33</v>
       </c>
+      <c r="G91" t="s">
+        <v>457</v>
+      </c>
       <c r="I91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>339</v>
       </c>
@@ -3650,11 +3922,14 @@
       <c r="F92" t="s">
         <v>35</v>
       </c>
+      <c r="G92" t="s">
+        <v>457</v>
+      </c>
       <c r="I92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>427</v>
       </c>
@@ -3670,11 +3945,14 @@
       <c r="F93" t="s">
         <v>27</v>
       </c>
+      <c r="G93" t="s">
+        <v>457</v>
+      </c>
       <c r="I93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>336</v>
       </c>
@@ -3690,11 +3968,14 @@
       <c r="F94" t="s">
         <v>15</v>
       </c>
+      <c r="G94" t="s">
+        <v>457</v>
+      </c>
       <c r="I94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>60</v>
       </c>
@@ -3710,11 +3991,14 @@
       <c r="F95" t="s">
         <v>33</v>
       </c>
+      <c r="G95" t="s">
+        <v>457</v>
+      </c>
       <c r="I95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>428</v>
       </c>
@@ -3730,11 +4014,14 @@
       <c r="F96" t="s">
         <v>35</v>
       </c>
+      <c r="G96" t="s">
+        <v>457</v>
+      </c>
       <c r="I96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>61</v>
       </c>
@@ -3750,11 +4037,14 @@
       <c r="F97" t="s">
         <v>13</v>
       </c>
+      <c r="G97" t="s">
+        <v>457</v>
+      </c>
       <c r="I97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>62</v>
       </c>
@@ -3770,11 +4060,14 @@
       <c r="F98" t="s">
         <v>35</v>
       </c>
+      <c r="G98" t="s">
+        <v>457</v>
+      </c>
       <c r="I98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>391</v>
       </c>
@@ -3790,11 +4083,14 @@
       <c r="F99" t="s">
         <v>13</v>
       </c>
+      <c r="G99" t="s">
+        <v>457</v>
+      </c>
       <c r="I99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>326</v>
       </c>
@@ -3810,11 +4106,14 @@
       <c r="F100" t="s">
         <v>13</v>
       </c>
+      <c r="G100" t="s">
+        <v>457</v>
+      </c>
       <c r="I100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>336</v>
       </c>
@@ -3830,11 +4129,14 @@
       <c r="F101" t="s">
         <v>15</v>
       </c>
+      <c r="G101" t="s">
+        <v>457</v>
+      </c>
       <c r="I101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -3850,11 +4152,14 @@
       <c r="F102" t="s">
         <v>33</v>
       </c>
+      <c r="G102" t="s">
+        <v>457</v>
+      </c>
       <c r="I102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>386</v>
       </c>
@@ -3870,11 +4175,14 @@
       <c r="F103" t="s">
         <v>23</v>
       </c>
+      <c r="G103" t="s">
+        <v>457</v>
+      </c>
       <c r="I103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>63</v>
       </c>
@@ -3890,11 +4198,14 @@
       <c r="F104" t="s">
         <v>35</v>
       </c>
+      <c r="G104" t="s">
+        <v>457</v>
+      </c>
       <c r="I104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>427</v>
       </c>
@@ -3910,11 +4221,14 @@
       <c r="F105" t="s">
         <v>27</v>
       </c>
+      <c r="G105" t="s">
+        <v>457</v>
+      </c>
       <c r="I105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>36</v>
       </c>
@@ -3930,11 +4244,14 @@
       <c r="F106" t="s">
         <v>16</v>
       </c>
+      <c r="G106" t="s">
+        <v>457</v>
+      </c>
       <c r="I106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>64</v>
       </c>
@@ -3950,11 +4267,14 @@
       <c r="F107" t="s">
         <v>23</v>
       </c>
+      <c r="G107" t="s">
+        <v>457</v>
+      </c>
       <c r="I107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>65</v>
       </c>
@@ -3970,11 +4290,14 @@
       <c r="F108" t="s">
         <v>15</v>
       </c>
+      <c r="G108" t="s">
+        <v>457</v>
+      </c>
       <c r="I108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>66</v>
       </c>
@@ -3990,11 +4313,14 @@
       <c r="F109" t="s">
         <v>23</v>
       </c>
+      <c r="G109" t="s">
+        <v>457</v>
+      </c>
       <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>67</v>
       </c>
@@ -4010,11 +4336,14 @@
       <c r="F110" t="s">
         <v>27</v>
       </c>
+      <c r="G110" t="s">
+        <v>457</v>
+      </c>
       <c r="I110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>323</v>
       </c>
@@ -4030,11 +4359,14 @@
       <c r="F111" t="s">
         <v>35</v>
       </c>
+      <c r="G111" t="s">
+        <v>457</v>
+      </c>
       <c r="I111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>62</v>
       </c>
@@ -4050,11 +4382,14 @@
       <c r="F112" t="s">
         <v>23</v>
       </c>
+      <c r="G112" t="s">
+        <v>457</v>
+      </c>
       <c r="I112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>340</v>
       </c>
@@ -4070,11 +4405,14 @@
       <c r="F113" t="s">
         <v>13</v>
       </c>
+      <c r="G113" t="s">
+        <v>457</v>
+      </c>
       <c r="I113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>326</v>
       </c>
@@ -4090,11 +4428,14 @@
       <c r="F114" t="s">
         <v>16</v>
       </c>
+      <c r="G114" t="s">
+        <v>457</v>
+      </c>
       <c r="I114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>392</v>
       </c>
@@ -4110,11 +4451,14 @@
       <c r="F115" t="s">
         <v>35</v>
       </c>
+      <c r="G115" t="s">
+        <v>457</v>
+      </c>
       <c r="I115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>68</v>
       </c>
@@ -4130,11 +4474,14 @@
       <c r="F116" t="s">
         <v>33</v>
       </c>
+      <c r="G116" t="s">
+        <v>457</v>
+      </c>
       <c r="I116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>364</v>
       </c>
@@ -4150,11 +4497,14 @@
       <c r="F117" t="s">
         <v>27</v>
       </c>
+      <c r="G117" t="s">
+        <v>457</v>
+      </c>
       <c r="I117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>38</v>
       </c>
@@ -4170,11 +4520,14 @@
       <c r="F118" t="s">
         <v>15</v>
       </c>
+      <c r="G118" t="s">
+        <v>457</v>
+      </c>
       <c r="I118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>69</v>
       </c>
@@ -4190,11 +4543,14 @@
       <c r="F119" t="s">
         <v>70</v>
       </c>
+      <c r="G119" t="s">
+        <v>457</v>
+      </c>
       <c r="I119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>65</v>
       </c>
@@ -4210,11 +4566,14 @@
       <c r="F120" t="s">
         <v>71</v>
       </c>
+      <c r="G120" t="s">
+        <v>457</v>
+      </c>
       <c r="I120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>393</v>
       </c>
@@ -4230,11 +4589,14 @@
       <c r="F121" t="s">
         <v>72</v>
       </c>
+      <c r="G121" t="s">
+        <v>457</v>
+      </c>
       <c r="I121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>392</v>
       </c>
@@ -4250,11 +4612,14 @@
       <c r="F122" t="s">
         <v>13</v>
       </c>
+      <c r="G122" t="s">
+        <v>457</v>
+      </c>
       <c r="I122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>64</v>
       </c>
@@ -4270,11 +4635,14 @@
       <c r="F123" t="s">
         <v>23</v>
       </c>
+      <c r="G123" t="s">
+        <v>457</v>
+      </c>
       <c r="I123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>73</v>
       </c>
@@ -4290,11 +4658,14 @@
       <c r="F124" t="s">
         <v>35</v>
       </c>
+      <c r="G124" t="s">
+        <v>457</v>
+      </c>
       <c r="I124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>386</v>
       </c>
@@ -4310,11 +4681,14 @@
       <c r="F125" t="s">
         <v>74</v>
       </c>
+      <c r="G125" t="s">
+        <v>457</v>
+      </c>
       <c r="I125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>335</v>
       </c>
@@ -4330,11 +4704,14 @@
       <c r="F126" t="s">
         <v>15</v>
       </c>
+      <c r="G126" t="s">
+        <v>457</v>
+      </c>
       <c r="I126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>68</v>
       </c>
@@ -4350,11 +4727,14 @@
       <c r="F127" t="s">
         <v>33</v>
       </c>
+      <c r="G127" t="s">
+        <v>457</v>
+      </c>
       <c r="I127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>62</v>
       </c>
@@ -4370,11 +4750,14 @@
       <c r="F128" t="s">
         <v>23</v>
       </c>
+      <c r="G128" t="s">
+        <v>457</v>
+      </c>
       <c r="I128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>394</v>
       </c>
@@ -4390,11 +4773,14 @@
       <c r="F129" t="s">
         <v>35</v>
       </c>
+      <c r="G129" t="s">
+        <v>457</v>
+      </c>
       <c r="I129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>364</v>
       </c>
@@ -4410,11 +4796,14 @@
       <c r="F130" t="s">
         <v>27</v>
       </c>
+      <c r="G130" t="s">
+        <v>457</v>
+      </c>
       <c r="I130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>395</v>
       </c>
@@ -4430,11 +4819,14 @@
       <c r="F131" t="s">
         <v>16</v>
       </c>
+      <c r="G131" t="s">
+        <v>457</v>
+      </c>
       <c r="I131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>65</v>
       </c>
@@ -4450,11 +4842,14 @@
       <c r="F132" t="s">
         <v>71</v>
       </c>
+      <c r="G132" t="s">
+        <v>457</v>
+      </c>
       <c r="I132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>393</v>
       </c>
@@ -4470,11 +4865,14 @@
       <c r="F133" t="s">
         <v>72</v>
       </c>
+      <c r="G133" t="s">
+        <v>457</v>
+      </c>
       <c r="I133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>393</v>
       </c>
@@ -4490,11 +4888,14 @@
       <c r="F134" t="s">
         <v>15</v>
       </c>
+      <c r="G134" t="s">
+        <v>457</v>
+      </c>
       <c r="I134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>75</v>
       </c>
@@ -4510,11 +4911,14 @@
       <c r="F135" t="s">
         <v>74</v>
       </c>
+      <c r="G135" t="s">
+        <v>457</v>
+      </c>
       <c r="I135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>386</v>
       </c>
@@ -4530,11 +4934,14 @@
       <c r="F136" t="s">
         <v>23</v>
       </c>
+      <c r="G136" t="s">
+        <v>457</v>
+      </c>
       <c r="I136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>76</v>
       </c>
@@ -4550,11 +4957,14 @@
       <c r="F137" t="s">
         <v>72</v>
       </c>
+      <c r="G137" t="s">
+        <v>457</v>
+      </c>
       <c r="I137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>396</v>
       </c>
@@ -4570,11 +4980,14 @@
       <c r="F138" t="s">
         <v>77</v>
       </c>
+      <c r="G138" t="s">
+        <v>457</v>
+      </c>
       <c r="I138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>341</v>
       </c>
@@ -4590,11 +5003,14 @@
       <c r="F139" t="s">
         <v>78</v>
       </c>
+      <c r="G139" t="s">
+        <v>457</v>
+      </c>
       <c r="I139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>429</v>
       </c>
@@ -4610,11 +5026,14 @@
       <c r="F140" t="s">
         <v>79</v>
       </c>
+      <c r="G140" t="s">
+        <v>457</v>
+      </c>
       <c r="I140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>68</v>
       </c>
@@ -4630,11 +5049,14 @@
       <c r="F141" t="s">
         <v>23</v>
       </c>
+      <c r="G141" t="s">
+        <v>457</v>
+      </c>
       <c r="I141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>298</v>
       </c>
@@ -4650,11 +5072,14 @@
       <c r="F142" t="s">
         <v>27</v>
       </c>
+      <c r="G142" t="s">
+        <v>457</v>
+      </c>
       <c r="I142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>386</v>
       </c>
@@ -4670,11 +5095,14 @@
       <c r="F143" t="s">
         <v>16</v>
       </c>
+      <c r="G143" t="s">
+        <v>457</v>
+      </c>
       <c r="I143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>340</v>
       </c>
@@ -4690,11 +5118,14 @@
       <c r="F144" t="s">
         <v>74</v>
       </c>
+      <c r="G144" t="s">
+        <v>457</v>
+      </c>
       <c r="I144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>430</v>
       </c>
@@ -4710,11 +5141,14 @@
       <c r="F145" t="s">
         <v>79</v>
       </c>
+      <c r="G145" t="s">
+        <v>457</v>
+      </c>
       <c r="I145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>429</v>
       </c>
@@ -4730,11 +5164,14 @@
       <c r="F146" t="s">
         <v>27</v>
       </c>
+      <c r="G146" t="s">
+        <v>457</v>
+      </c>
       <c r="I146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>63</v>
       </c>
@@ -4750,11 +5187,14 @@
       <c r="F147" t="s">
         <v>71</v>
       </c>
+      <c r="G147" t="s">
+        <v>457</v>
+      </c>
       <c r="I147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>444</v>
       </c>
@@ -4770,11 +5210,14 @@
       <c r="F148" t="s">
         <v>23</v>
       </c>
+      <c r="G148" t="s">
+        <v>457</v>
+      </c>
       <c r="I148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>442</v>
       </c>
@@ -4790,11 +5233,14 @@
       <c r="F149" t="s">
         <v>77</v>
       </c>
+      <c r="G149" t="s">
+        <v>457</v>
+      </c>
       <c r="I149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>80</v>
       </c>
@@ -4810,11 +5256,14 @@
       <c r="F150" t="s">
         <v>74</v>
       </c>
+      <c r="G150" t="s">
+        <v>457</v>
+      </c>
       <c r="I150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>81</v>
       </c>
@@ -4830,11 +5279,14 @@
       <c r="F151" t="s">
         <v>77</v>
       </c>
+      <c r="G151" t="s">
+        <v>457</v>
+      </c>
       <c r="I151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>393</v>
       </c>
@@ -4850,11 +5302,14 @@
       <c r="F152" t="s">
         <v>15</v>
       </c>
+      <c r="G152" t="s">
+        <v>457</v>
+      </c>
       <c r="I152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>342</v>
       </c>
@@ -4870,11 +5325,14 @@
       <c r="F153" t="s">
         <v>78</v>
       </c>
+      <c r="G153" t="s">
+        <v>457</v>
+      </c>
       <c r="I153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>299</v>
       </c>
@@ -4890,11 +5348,14 @@
       <c r="F154" t="s">
         <v>79</v>
       </c>
+      <c r="G154" t="s">
+        <v>457</v>
+      </c>
       <c r="I154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>82</v>
       </c>
@@ -4910,11 +5371,14 @@
       <c r="F155" t="s">
         <v>23</v>
       </c>
+      <c r="G155" t="s">
+        <v>457</v>
+      </c>
       <c r="I155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>395</v>
       </c>
@@ -4930,11 +5394,14 @@
       <c r="F156" t="s">
         <v>27</v>
       </c>
+      <c r="G156" t="s">
+        <v>457</v>
+      </c>
       <c r="I156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>83</v>
       </c>
@@ -4950,11 +5417,14 @@
       <c r="F157" t="s">
         <v>16</v>
       </c>
+      <c r="G157" t="s">
+        <v>457</v>
+      </c>
       <c r="I157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>63</v>
       </c>
@@ -4970,11 +5440,14 @@
       <c r="F158" t="s">
         <v>71</v>
       </c>
+      <c r="G158" t="s">
+        <v>457</v>
+      </c>
       <c r="I158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>84</v>
       </c>
@@ -4990,11 +5463,14 @@
       <c r="F159" t="s">
         <v>79</v>
       </c>
+      <c r="G159" t="s">
+        <v>457</v>
+      </c>
       <c r="I159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>85</v>
       </c>
@@ -5010,11 +5486,14 @@
       <c r="F160" t="s">
         <v>78</v>
       </c>
+      <c r="G160" t="s">
+        <v>457</v>
+      </c>
       <c r="I160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>86</v>
       </c>
@@ -5030,11 +5509,14 @@
       <c r="F161" t="s">
         <v>74</v>
       </c>
+      <c r="G161" t="s">
+        <v>457</v>
+      </c>
       <c r="I161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>335</v>
       </c>
@@ -5050,11 +5532,14 @@
       <c r="F162" t="s">
         <v>23</v>
       </c>
+      <c r="G162" t="s">
+        <v>457</v>
+      </c>
       <c r="I162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>342</v>
       </c>
@@ -5070,11 +5555,14 @@
       <c r="F163" t="s">
         <v>79</v>
       </c>
+      <c r="G163" t="s">
+        <v>457</v>
+      </c>
       <c r="I163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>443</v>
       </c>
@@ -5090,11 +5578,14 @@
       <c r="F164" t="s">
         <v>77</v>
       </c>
+      <c r="G164" t="s">
+        <v>457</v>
+      </c>
       <c r="I164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>343</v>
       </c>
@@ -5110,11 +5601,14 @@
       <c r="F165" t="s">
         <v>15</v>
       </c>
+      <c r="G165" t="s">
+        <v>457</v>
+      </c>
       <c r="I165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>87</v>
       </c>
@@ -5130,11 +5624,14 @@
       <c r="F166" t="s">
         <v>78</v>
       </c>
+      <c r="G166" t="s">
+        <v>457</v>
+      </c>
       <c r="I166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>88</v>
       </c>
@@ -5150,11 +5647,14 @@
       <c r="F167" t="s">
         <v>79</v>
       </c>
+      <c r="G167" t="s">
+        <v>457</v>
+      </c>
       <c r="I167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>89</v>
       </c>
@@ -5170,11 +5670,14 @@
       <c r="F168" t="s">
         <v>27</v>
       </c>
+      <c r="G168" t="s">
+        <v>457</v>
+      </c>
       <c r="I168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>90</v>
       </c>
@@ -5190,11 +5693,14 @@
       <c r="F169" t="s">
         <v>23</v>
       </c>
+      <c r="G169" t="s">
+        <v>457</v>
+      </c>
       <c r="I169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>397</v>
       </c>
@@ -5210,11 +5716,14 @@
       <c r="F170" t="s">
         <v>23</v>
       </c>
+      <c r="G170" t="s">
+        <v>457</v>
+      </c>
       <c r="I170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>80</v>
       </c>
@@ -5230,11 +5739,14 @@
       <c r="F171" t="s">
         <v>74</v>
       </c>
+      <c r="G171" t="s">
+        <v>457</v>
+      </c>
       <c r="I171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>300</v>
       </c>
@@ -5250,11 +5762,14 @@
       <c r="F172" t="s">
         <v>77</v>
       </c>
+      <c r="G172" t="s">
+        <v>457</v>
+      </c>
       <c r="I172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>55</v>
       </c>
@@ -5270,11 +5785,14 @@
       <c r="F173" t="s">
         <v>15</v>
       </c>
+      <c r="G173" t="s">
+        <v>457</v>
+      </c>
       <c r="I173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>343</v>
       </c>
@@ -5290,11 +5808,14 @@
       <c r="F174" t="s">
         <v>78</v>
       </c>
+      <c r="G174" t="s">
+        <v>457</v>
+      </c>
       <c r="I174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>365</v>
       </c>
@@ -5310,11 +5831,14 @@
       <c r="F175" t="s">
         <v>79</v>
       </c>
+      <c r="G175" t="s">
+        <v>457</v>
+      </c>
       <c r="I175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>397</v>
       </c>
@@ -5330,11 +5854,14 @@
       <c r="F176" t="s">
         <v>23</v>
       </c>
+      <c r="G176" t="s">
+        <v>457</v>
+      </c>
       <c r="I176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>378</v>
       </c>
@@ -5350,11 +5877,14 @@
       <c r="F177" t="s">
         <v>27</v>
       </c>
+      <c r="G177" t="s">
+        <v>457</v>
+      </c>
       <c r="I177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>384</v>
       </c>
@@ -5370,11 +5900,14 @@
       <c r="F178" t="s">
         <v>16</v>
       </c>
+      <c r="G178" t="s">
+        <v>457</v>
+      </c>
       <c r="I178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>92</v>
       </c>
@@ -5390,11 +5923,14 @@
       <c r="F179" t="s">
         <v>71</v>
       </c>
+      <c r="G179" t="s">
+        <v>457</v>
+      </c>
       <c r="I179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -5410,11 +5946,14 @@
       <c r="F180" t="s">
         <v>23</v>
       </c>
+      <c r="G180" t="s">
+        <v>457</v>
+      </c>
       <c r="I180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>398</v>
       </c>
@@ -5430,11 +5969,14 @@
       <c r="F181" t="s">
         <v>15</v>
       </c>
+      <c r="G181" t="s">
+        <v>457</v>
+      </c>
       <c r="I181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>94</v>
       </c>
@@ -5450,11 +5992,14 @@
       <c r="F182" t="s">
         <v>77</v>
       </c>
+      <c r="G182" t="s">
+        <v>457</v>
+      </c>
       <c r="I182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>95</v>
       </c>
@@ -5470,11 +6015,14 @@
       <c r="F183" t="s">
         <v>78</v>
       </c>
+      <c r="G183" t="s">
+        <v>457</v>
+      </c>
       <c r="I183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>96</v>
       </c>
@@ -5490,11 +6038,14 @@
       <c r="F184" t="s">
         <v>79</v>
       </c>
+      <c r="G184" t="s">
+        <v>457</v>
+      </c>
       <c r="I184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>344</v>
       </c>
@@ -5510,11 +6061,14 @@
       <c r="F185" t="s">
         <v>16</v>
       </c>
+      <c r="G185" t="s">
+        <v>457</v>
+      </c>
       <c r="I185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>97</v>
       </c>
@@ -5530,11 +6084,14 @@
       <c r="F186" t="s">
         <v>71</v>
       </c>
+      <c r="G186" t="s">
+        <v>457</v>
+      </c>
       <c r="I186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>390</v>
       </c>
@@ -5550,11 +6107,14 @@
       <c r="F187" t="s">
         <v>27</v>
       </c>
+      <c r="G187" t="s">
+        <v>457</v>
+      </c>
       <c r="I187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>398</v>
       </c>
@@ -5570,11 +6130,14 @@
       <c r="F188" t="s">
         <v>78</v>
       </c>
+      <c r="G188" t="s">
+        <v>457</v>
+      </c>
       <c r="I188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -5590,11 +6153,14 @@
       <c r="F189" t="s">
         <v>79</v>
       </c>
+      <c r="G189" t="s">
+        <v>457</v>
+      </c>
       <c r="I189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>98</v>
       </c>
@@ -5610,11 +6176,14 @@
       <c r="F190" t="s">
         <v>74</v>
       </c>
+      <c r="G190" t="s">
+        <v>457</v>
+      </c>
       <c r="I190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>98</v>
       </c>
@@ -5630,11 +6199,14 @@
       <c r="F191" t="s">
         <v>74</v>
       </c>
+      <c r="G191" t="s">
+        <v>457</v>
+      </c>
       <c r="I191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>99</v>
       </c>
@@ -5650,11 +6222,14 @@
       <c r="F192" t="s">
         <v>77</v>
       </c>
+      <c r="G192" t="s">
+        <v>457</v>
+      </c>
       <c r="I192">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>398</v>
       </c>
@@ -5670,11 +6245,14 @@
       <c r="F193" t="s">
         <v>15</v>
       </c>
+      <c r="G193" t="s">
+        <v>457</v>
+      </c>
       <c r="I193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>345</v>
       </c>
@@ -5690,11 +6268,14 @@
       <c r="F194" t="s">
         <v>78</v>
       </c>
+      <c r="G194" t="s">
+        <v>457</v>
+      </c>
       <c r="I194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>97</v>
       </c>
@@ -5710,11 +6291,14 @@
       <c r="F195" t="s">
         <v>79</v>
       </c>
+      <c r="G195" t="s">
+        <v>457</v>
+      </c>
       <c r="I195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>100</v>
       </c>
@@ -5730,11 +6314,14 @@
       <c r="F196" t="s">
         <v>23</v>
       </c>
+      <c r="G196" t="s">
+        <v>457</v>
+      </c>
       <c r="I196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>101</v>
       </c>
@@ -5750,11 +6337,14 @@
       <c r="F197" t="s">
         <v>27</v>
       </c>
+      <c r="G197" t="s">
+        <v>457</v>
+      </c>
       <c r="I197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>301</v>
       </c>
@@ -5770,11 +6360,14 @@
       <c r="F198" t="s">
         <v>16</v>
       </c>
+      <c r="G198" t="s">
+        <v>457</v>
+      </c>
       <c r="I198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>102</v>
       </c>
@@ -5790,11 +6383,14 @@
       <c r="F199" t="s">
         <v>71</v>
       </c>
+      <c r="G199" t="s">
+        <v>457</v>
+      </c>
       <c r="I199">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>103</v>
       </c>
@@ -5810,11 +6406,14 @@
       <c r="F200" t="s">
         <v>15</v>
       </c>
+      <c r="G200" t="s">
+        <v>457</v>
+      </c>
       <c r="I200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>345</v>
       </c>
@@ -5830,11 +6429,14 @@
       <c r="F201" t="s">
         <v>23</v>
       </c>
+      <c r="G201" t="s">
+        <v>457</v>
+      </c>
       <c r="I201">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>97</v>
       </c>
@@ -5850,11 +6452,14 @@
       <c r="F202" t="s">
         <v>74</v>
       </c>
+      <c r="G202" t="s">
+        <v>457</v>
+      </c>
       <c r="I202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>104</v>
       </c>
@@ -5870,11 +6475,14 @@
       <c r="F203" t="s">
         <v>77</v>
       </c>
+      <c r="G203" t="s">
+        <v>457</v>
+      </c>
       <c r="I203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>292</v>
       </c>
@@ -5890,11 +6498,14 @@
       <c r="F204" t="s">
         <v>78</v>
       </c>
+      <c r="G204" t="s">
+        <v>457</v>
+      </c>
       <c r="I204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>105</v>
       </c>
@@ -5910,11 +6521,14 @@
       <c r="F205" t="s">
         <v>79</v>
       </c>
+      <c r="G205" t="s">
+        <v>457</v>
+      </c>
       <c r="I205">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>346</v>
       </c>
@@ -5930,11 +6544,14 @@
       <c r="F206" t="s">
         <v>27</v>
       </c>
+      <c r="G206" t="s">
+        <v>457</v>
+      </c>
       <c r="I206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>96</v>
       </c>
@@ -5950,11 +6567,14 @@
       <c r="F207" t="s">
         <v>16</v>
       </c>
+      <c r="G207" t="s">
+        <v>457</v>
+      </c>
       <c r="I207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>106</v>
       </c>
@@ -5970,11 +6590,14 @@
       <c r="F208" t="s">
         <v>15</v>
       </c>
+      <c r="G208" t="s">
+        <v>457</v>
+      </c>
       <c r="I208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>292</v>
       </c>
@@ -5990,11 +6613,14 @@
       <c r="F209" t="s">
         <v>71</v>
       </c>
+      <c r="G209" t="s">
+        <v>457</v>
+      </c>
       <c r="I209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>393</v>
       </c>
@@ -6010,11 +6636,14 @@
       <c r="F210" t="s">
         <v>16</v>
       </c>
+      <c r="G210" t="s">
+        <v>457</v>
+      </c>
       <c r="I210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>366</v>
       </c>
@@ -6030,11 +6659,14 @@
       <c r="F211" t="s">
         <v>71</v>
       </c>
+      <c r="G211" t="s">
+        <v>457</v>
+      </c>
       <c r="I211">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>107</v>
       </c>
@@ -6050,11 +6682,14 @@
       <c r="F212" t="s">
         <v>78</v>
       </c>
+      <c r="G212" t="s">
+        <v>457</v>
+      </c>
       <c r="I212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>108</v>
       </c>
@@ -6070,11 +6705,14 @@
       <c r="F213" t="s">
         <v>77</v>
       </c>
+      <c r="G213" t="s">
+        <v>457</v>
+      </c>
       <c r="I213">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>399</v>
       </c>
@@ -6090,11 +6728,14 @@
       <c r="F214" t="s">
         <v>27</v>
       </c>
+      <c r="G214" t="s">
+        <v>457</v>
+      </c>
       <c r="I214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>109</v>
       </c>
@@ -6110,11 +6751,14 @@
       <c r="F215" t="s">
         <v>23</v>
       </c>
+      <c r="G215" t="s">
+        <v>457</v>
+      </c>
       <c r="I215">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>111</v>
       </c>
@@ -6130,11 +6774,14 @@
       <c r="F216" t="s">
         <v>79</v>
       </c>
+      <c r="G216" t="s">
+        <v>457</v>
+      </c>
       <c r="I216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>347</v>
       </c>
@@ -6150,11 +6797,14 @@
       <c r="F217" t="s">
         <v>16</v>
       </c>
+      <c r="G217" t="s">
+        <v>457</v>
+      </c>
       <c r="I217">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>112</v>
       </c>
@@ -6170,11 +6820,14 @@
       <c r="F218" t="s">
         <v>74</v>
       </c>
+      <c r="G218" t="s">
+        <v>457</v>
+      </c>
       <c r="I218">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>104</v>
       </c>
@@ -6190,11 +6843,14 @@
       <c r="F219" t="s">
         <v>77</v>
       </c>
+      <c r="G219" t="s">
+        <v>457</v>
+      </c>
       <c r="I219">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>398</v>
       </c>
@@ -6210,11 +6866,14 @@
       <c r="F220" t="s">
         <v>15</v>
       </c>
+      <c r="G220" t="s">
+        <v>457</v>
+      </c>
       <c r="I220">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>400</v>
       </c>
@@ -6230,11 +6889,14 @@
       <c r="F221" t="s">
         <v>78</v>
       </c>
+      <c r="G221" t="s">
+        <v>457</v>
+      </c>
       <c r="I221">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>65</v>
       </c>
@@ -6250,11 +6912,14 @@
       <c r="F222" t="s">
         <v>79</v>
       </c>
+      <c r="G222" t="s">
+        <v>457</v>
+      </c>
       <c r="I222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>367</v>
       </c>
@@ -6270,11 +6935,14 @@
       <c r="F223" t="s">
         <v>23</v>
       </c>
+      <c r="G223" t="s">
+        <v>457</v>
+      </c>
       <c r="I223">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>348</v>
       </c>
@@ -6290,11 +6958,14 @@
       <c r="F224" t="s">
         <v>27</v>
       </c>
+      <c r="G224" t="s">
+        <v>457</v>
+      </c>
       <c r="I224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>347</v>
       </c>
@@ -6310,11 +6981,14 @@
       <c r="F225" t="s">
         <v>16</v>
       </c>
+      <c r="G225" t="s">
+        <v>457</v>
+      </c>
       <c r="I225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>113</v>
       </c>
@@ -6330,11 +7004,14 @@
       <c r="F226" t="s">
         <v>71</v>
       </c>
+      <c r="G226" t="s">
+        <v>457</v>
+      </c>
       <c r="I226">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>103</v>
       </c>
@@ -6350,11 +7027,14 @@
       <c r="F227" t="s">
         <v>74</v>
       </c>
+      <c r="G227" t="s">
+        <v>457</v>
+      </c>
       <c r="I227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>114</v>
       </c>
@@ -6370,11 +7050,14 @@
       <c r="F228" t="s">
         <v>77</v>
       </c>
+      <c r="G228" t="s">
+        <v>457</v>
+      </c>
       <c r="I228">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>297</v>
       </c>
@@ -6390,11 +7073,14 @@
       <c r="F229" t="s">
         <v>15</v>
       </c>
+      <c r="G229" t="s">
+        <v>457</v>
+      </c>
       <c r="I229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>401</v>
       </c>
@@ -6410,11 +7096,14 @@
       <c r="F230" t="s">
         <v>78</v>
       </c>
+      <c r="G230" t="s">
+        <v>457</v>
+      </c>
       <c r="I230">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>115</v>
       </c>
@@ -6430,11 +7119,14 @@
       <c r="F231" t="s">
         <v>79</v>
       </c>
+      <c r="G231" t="s">
+        <v>457</v>
+      </c>
       <c r="I231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>116</v>
       </c>
@@ -6450,11 +7142,14 @@
       <c r="F232" t="s">
         <v>23</v>
       </c>
+      <c r="G232" t="s">
+        <v>457</v>
+      </c>
       <c r="I232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>108</v>
       </c>
@@ -6470,11 +7165,14 @@
       <c r="F233" t="s">
         <v>27</v>
       </c>
+      <c r="G233" t="s">
+        <v>457</v>
+      </c>
       <c r="I233">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>96</v>
       </c>
@@ -6490,11 +7188,14 @@
       <c r="F234" t="s">
         <v>16</v>
       </c>
+      <c r="G234" t="s">
+        <v>457</v>
+      </c>
       <c r="I234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>349</v>
       </c>
@@ -6510,11 +7211,14 @@
       <c r="F235" t="s">
         <v>71</v>
       </c>
+      <c r="G235" t="s">
+        <v>457</v>
+      </c>
       <c r="I235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>117</v>
       </c>
@@ -6530,11 +7234,14 @@
       <c r="F236" t="s">
         <v>16</v>
       </c>
+      <c r="G236" t="s">
+        <v>457</v>
+      </c>
       <c r="I236">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>118</v>
       </c>
@@ -6550,11 +7257,14 @@
       <c r="F237" t="s">
         <v>27</v>
       </c>
+      <c r="G237" t="s">
+        <v>457</v>
+      </c>
       <c r="I237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>399</v>
       </c>
@@ -6570,11 +7280,14 @@
       <c r="F238" t="s">
         <v>27</v>
       </c>
+      <c r="G238" t="s">
+        <v>457</v>
+      </c>
       <c r="I238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>119</v>
       </c>
@@ -6590,11 +7303,14 @@
       <c r="F239" t="s">
         <v>74</v>
       </c>
+      <c r="G239" t="s">
+        <v>457</v>
+      </c>
       <c r="I239">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>119</v>
       </c>
@@ -6610,11 +7326,14 @@
       <c r="F240" t="s">
         <v>74</v>
       </c>
+      <c r="G240" t="s">
+        <v>457</v>
+      </c>
       <c r="I240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>443</v>
       </c>
@@ -6630,11 +7349,14 @@
       <c r="F241" t="s">
         <v>77</v>
       </c>
+      <c r="G241" t="s">
+        <v>457</v>
+      </c>
       <c r="I241">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>120</v>
       </c>
@@ -6650,11 +7372,14 @@
       <c r="F242" t="s">
         <v>15</v>
       </c>
+      <c r="G242" t="s">
+        <v>457</v>
+      </c>
       <c r="I242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>121</v>
       </c>
@@ -6670,11 +7395,14 @@
       <c r="F243" t="s">
         <v>78</v>
       </c>
+      <c r="G243" t="s">
+        <v>457</v>
+      </c>
       <c r="I243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>379</v>
       </c>
@@ -6690,11 +7418,14 @@
       <c r="F244" t="s">
         <v>79</v>
       </c>
+      <c r="G244" t="s">
+        <v>457</v>
+      </c>
       <c r="I244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>122</v>
       </c>
@@ -6710,11 +7441,14 @@
       <c r="F245" t="s">
         <v>23</v>
       </c>
+      <c r="G245" t="s">
+        <v>457</v>
+      </c>
       <c r="I245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>302</v>
       </c>
@@ -6730,11 +7464,14 @@
       <c r="F246" t="s">
         <v>27</v>
       </c>
+      <c r="G246" t="s">
+        <v>457</v>
+      </c>
       <c r="I246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>107</v>
       </c>
@@ -6750,11 +7487,14 @@
       <c r="F247" t="s">
         <v>16</v>
       </c>
+      <c r="G247" t="s">
+        <v>457</v>
+      </c>
       <c r="I247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>123</v>
       </c>
@@ -6770,11 +7510,14 @@
       <c r="F248" t="s">
         <v>71</v>
       </c>
+      <c r="G248" t="s">
+        <v>457</v>
+      </c>
       <c r="I248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>124</v>
       </c>
@@ -6790,11 +7533,14 @@
       <c r="F249" t="s">
         <v>77</v>
       </c>
+      <c r="G249" t="s">
+        <v>457</v>
+      </c>
       <c r="I249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>125</v>
       </c>
@@ -6810,11 +7556,14 @@
       <c r="F250" t="s">
         <v>74</v>
       </c>
+      <c r="G250" t="s">
+        <v>457</v>
+      </c>
       <c r="I250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>126</v>
       </c>
@@ -6830,11 +7579,14 @@
       <c r="F251" t="s">
         <v>23</v>
       </c>
+      <c r="G251" t="s">
+        <v>457</v>
+      </c>
       <c r="I251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>122</v>
       </c>
@@ -6850,11 +7602,14 @@
       <c r="F252" t="s">
         <v>16</v>
       </c>
+      <c r="G252" t="s">
+        <v>457</v>
+      </c>
       <c r="I252">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>127</v>
       </c>
@@ -6870,11 +7625,14 @@
       <c r="F253" t="s">
         <v>71</v>
       </c>
+      <c r="G253" t="s">
+        <v>457</v>
+      </c>
       <c r="I253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>431</v>
       </c>
@@ -6890,11 +7648,14 @@
       <c r="F254" t="s">
         <v>78</v>
       </c>
+      <c r="G254" t="s">
+        <v>457</v>
+      </c>
       <c r="I254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>103</v>
       </c>
@@ -6910,11 +7671,14 @@
       <c r="F255" t="s">
         <v>15</v>
       </c>
+      <c r="G255" t="s">
+        <v>457</v>
+      </c>
       <c r="I255">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>401</v>
       </c>
@@ -6930,11 +7694,14 @@
       <c r="F256" t="s">
         <v>27</v>
       </c>
+      <c r="G256" t="s">
+        <v>457</v>
+      </c>
       <c r="I256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>128</v>
       </c>
@@ -6950,11 +7717,14 @@
       <c r="F257" t="s">
         <v>79</v>
       </c>
+      <c r="G257" t="s">
+        <v>457</v>
+      </c>
       <c r="I257">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>432</v>
       </c>
@@ -6970,11 +7740,14 @@
       <c r="F258" t="s">
         <v>77</v>
       </c>
+      <c r="G258" t="s">
+        <v>457</v>
+      </c>
       <c r="I258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>124</v>
       </c>
@@ -6990,11 +7763,14 @@
       <c r="F259" t="s">
         <v>15</v>
       </c>
+      <c r="G259" t="s">
+        <v>457</v>
+      </c>
       <c r="I259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>122</v>
       </c>
@@ -7010,11 +7786,14 @@
       <c r="F260" t="s">
         <v>74</v>
       </c>
+      <c r="G260" t="s">
+        <v>457</v>
+      </c>
       <c r="I260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>346</v>
       </c>
@@ -7030,11 +7809,14 @@
       <c r="F261" t="s">
         <v>74</v>
       </c>
+      <c r="G261" t="s">
+        <v>457</v>
+      </c>
       <c r="I261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>401</v>
       </c>
@@ -7050,11 +7832,14 @@
       <c r="F262" t="s">
         <v>23</v>
       </c>
+      <c r="G262" t="s">
+        <v>457</v>
+      </c>
       <c r="I262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>125</v>
       </c>
@@ -7070,11 +7855,14 @@
       <c r="F263" t="s">
         <v>27</v>
       </c>
+      <c r="G263" t="s">
+        <v>457</v>
+      </c>
       <c r="I263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>105</v>
       </c>
@@ -7090,11 +7878,14 @@
       <c r="F264" t="s">
         <v>16</v>
       </c>
+      <c r="G264" t="s">
+        <v>457</v>
+      </c>
       <c r="I264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>401</v>
       </c>
@@ -7110,11 +7901,14 @@
       <c r="F265" t="s">
         <v>78</v>
       </c>
+      <c r="G265" t="s">
+        <v>457</v>
+      </c>
       <c r="I265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>445</v>
       </c>
@@ -7130,11 +7924,14 @@
       <c r="F266" t="s">
         <v>74</v>
       </c>
+      <c r="G266" t="s">
+        <v>457</v>
+      </c>
       <c r="I266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>129</v>
       </c>
@@ -7150,11 +7947,14 @@
       <c r="F267" t="s">
         <v>23</v>
       </c>
+      <c r="G267" t="s">
+        <v>457</v>
+      </c>
       <c r="I267">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>350</v>
       </c>
@@ -7170,11 +7970,14 @@
       <c r="F268" t="s">
         <v>71</v>
       </c>
+      <c r="G268" t="s">
+        <v>457</v>
+      </c>
       <c r="I268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>130</v>
       </c>
@@ -7190,11 +7993,14 @@
       <c r="F269" t="s">
         <v>74</v>
       </c>
+      <c r="G269" t="s">
+        <v>457</v>
+      </c>
       <c r="I269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>131</v>
       </c>
@@ -7210,11 +8016,14 @@
       <c r="F270" t="s">
         <v>77</v>
       </c>
+      <c r="G270" t="s">
+        <v>457</v>
+      </c>
       <c r="I270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>132</v>
       </c>
@@ -7230,11 +8039,14 @@
       <c r="F271" t="s">
         <v>15</v>
       </c>
+      <c r="G271" t="s">
+        <v>457</v>
+      </c>
       <c r="I271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>133</v>
       </c>
@@ -7250,11 +8062,14 @@
       <c r="F272" t="s">
         <v>78</v>
       </c>
+      <c r="G272" t="s">
+        <v>457</v>
+      </c>
       <c r="I272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>134</v>
       </c>
@@ -7270,11 +8085,14 @@
       <c r="F273" t="s">
         <v>79</v>
       </c>
+      <c r="G273" t="s">
+        <v>457</v>
+      </c>
       <c r="I273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>135</v>
       </c>
@@ -7290,11 +8108,14 @@
       <c r="F274" t="s">
         <v>23</v>
       </c>
+      <c r="G274" t="s">
+        <v>457</v>
+      </c>
       <c r="I274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>136</v>
       </c>
@@ -7310,11 +8131,14 @@
       <c r="F275" t="s">
         <v>27</v>
       </c>
+      <c r="G275" t="s">
+        <v>457</v>
+      </c>
       <c r="I275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>351</v>
       </c>
@@ -7330,11 +8154,14 @@
       <c r="F276" t="s">
         <v>16</v>
       </c>
+      <c r="G276" t="s">
+        <v>457</v>
+      </c>
       <c r="I276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>137</v>
       </c>
@@ -7350,11 +8177,14 @@
       <c r="F277" t="s">
         <v>71</v>
       </c>
+      <c r="G277" t="s">
+        <v>457</v>
+      </c>
       <c r="I277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>303</v>
       </c>
@@ -7370,11 +8200,14 @@
       <c r="F278" t="s">
         <v>78</v>
       </c>
+      <c r="G278" t="s">
+        <v>457</v>
+      </c>
       <c r="I278">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>131</v>
       </c>
@@ -7390,11 +8223,14 @@
       <c r="F279" t="s">
         <v>23</v>
       </c>
+      <c r="G279" t="s">
+        <v>457</v>
+      </c>
       <c r="I279">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>138</v>
       </c>
@@ -7410,11 +8246,14 @@
       <c r="F280" t="s">
         <v>74</v>
       </c>
+      <c r="G280" t="s">
+        <v>457</v>
+      </c>
       <c r="I280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>380</v>
       </c>
@@ -7430,11 +8269,14 @@
       <c r="F281" t="s">
         <v>23</v>
       </c>
+      <c r="G281" t="s">
+        <v>457</v>
+      </c>
       <c r="I281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>327</v>
       </c>
@@ -7450,11 +8292,14 @@
       <c r="F282" t="s">
         <v>71</v>
       </c>
+      <c r="G282" t="s">
+        <v>457</v>
+      </c>
       <c r="I282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>138</v>
       </c>
@@ -7470,11 +8315,14 @@
       <c r="F283" t="s">
         <v>74</v>
       </c>
+      <c r="G283" t="s">
+        <v>457</v>
+      </c>
       <c r="I283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>139</v>
       </c>
@@ -7490,11 +8338,14 @@
       <c r="F284" t="s">
         <v>77</v>
       </c>
+      <c r="G284" t="s">
+        <v>457</v>
+      </c>
       <c r="I284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>140</v>
       </c>
@@ -7510,11 +8361,14 @@
       <c r="F285" t="s">
         <v>15</v>
       </c>
+      <c r="G285" t="s">
+        <v>457</v>
+      </c>
       <c r="I285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>141</v>
       </c>
@@ -7530,11 +8384,14 @@
       <c r="F286" t="s">
         <v>78</v>
       </c>
+      <c r="G286" t="s">
+        <v>457</v>
+      </c>
       <c r="I286">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>142</v>
       </c>
@@ -7550,11 +8407,14 @@
       <c r="F287" t="s">
         <v>79</v>
       </c>
+      <c r="G287" t="s">
+        <v>457</v>
+      </c>
       <c r="I287">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>143</v>
       </c>
@@ -7570,11 +8430,14 @@
       <c r="F288" t="s">
         <v>23</v>
       </c>
+      <c r="G288" t="s">
+        <v>457</v>
+      </c>
       <c r="I288">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>352</v>
       </c>
@@ -7590,11 +8453,14 @@
       <c r="F289" t="s">
         <v>27</v>
       </c>
+      <c r="G289" t="s">
+        <v>457</v>
+      </c>
       <c r="I289">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>353</v>
       </c>
@@ -7610,11 +8476,14 @@
       <c r="F290" t="s">
         <v>16</v>
       </c>
+      <c r="G290" t="s">
+        <v>457</v>
+      </c>
       <c r="I290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>327</v>
       </c>
@@ -7630,11 +8499,14 @@
       <c r="F291" t="s">
         <v>71</v>
       </c>
+      <c r="G291" t="s">
+        <v>457</v>
+      </c>
       <c r="I291">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>446</v>
       </c>
@@ -7650,11 +8522,14 @@
       <c r="F292" t="s">
         <v>15</v>
       </c>
+      <c r="G292" t="s">
+        <v>457</v>
+      </c>
       <c r="I292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>144</v>
       </c>
@@ -7670,11 +8545,14 @@
       <c r="F293" t="s">
         <v>74</v>
       </c>
+      <c r="G293" t="s">
+        <v>457</v>
+      </c>
       <c r="I293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>433</v>
       </c>
@@ -7690,11 +8568,14 @@
       <c r="F294" t="s">
         <v>71</v>
       </c>
+      <c r="G294" t="s">
+        <v>457</v>
+      </c>
       <c r="I294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>145</v>
       </c>
@@ -7710,11 +8591,14 @@
       <c r="F295" t="s">
         <v>15</v>
       </c>
+      <c r="G295" t="s">
+        <v>457</v>
+      </c>
       <c r="I295">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>146</v>
       </c>
@@ -7730,11 +8614,14 @@
       <c r="F296" t="s">
         <v>78</v>
       </c>
+      <c r="G296" t="s">
+        <v>457</v>
+      </c>
       <c r="I296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>147</v>
       </c>
@@ -7750,11 +8637,14 @@
       <c r="F297" t="s">
         <v>23</v>
       </c>
+      <c r="G297" t="s">
+        <v>457</v>
+      </c>
       <c r="I297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>148</v>
       </c>
@@ -7770,11 +8660,14 @@
       <c r="F298" t="s">
         <v>16</v>
       </c>
+      <c r="G298" t="s">
+        <v>457</v>
+      </c>
       <c r="I298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>354</v>
       </c>
@@ -7790,11 +8683,14 @@
       <c r="F299" t="s">
         <v>71</v>
       </c>
+      <c r="G299" t="s">
+        <v>457</v>
+      </c>
       <c r="I299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>434</v>
       </c>
@@ -7810,11 +8706,14 @@
       <c r="F300" t="s">
         <v>23</v>
       </c>
+      <c r="G300" t="s">
+        <v>457</v>
+      </c>
       <c r="I300">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>149</v>
       </c>
@@ -7830,11 +8729,14 @@
       <c r="F301" t="s">
         <v>15</v>
       </c>
+      <c r="G301" t="s">
+        <v>457</v>
+      </c>
       <c r="I301">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>380</v>
       </c>
@@ -7850,11 +8752,14 @@
       <c r="F302" t="s">
         <v>23</v>
       </c>
+      <c r="G302" t="s">
+        <v>457</v>
+      </c>
       <c r="I302">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>150</v>
       </c>
@@ -7870,11 +8775,14 @@
       <c r="F303" t="s">
         <v>74</v>
       </c>
+      <c r="G303" t="s">
+        <v>457</v>
+      </c>
       <c r="I303">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>368</v>
       </c>
@@ -7890,11 +8798,14 @@
       <c r="F304" t="s">
         <v>151</v>
       </c>
+      <c r="G304" t="s">
+        <v>457</v>
+      </c>
       <c r="I304">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>152</v>
       </c>
@@ -7910,11 +8821,14 @@
       <c r="F305" t="s">
         <v>153</v>
       </c>
+      <c r="G305" t="s">
+        <v>457</v>
+      </c>
       <c r="I305">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>154</v>
       </c>
@@ -7930,11 +8844,14 @@
       <c r="F306" t="s">
         <v>155</v>
       </c>
+      <c r="G306" t="s">
+        <v>457</v>
+      </c>
       <c r="I306">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>369</v>
       </c>
@@ -7950,11 +8867,14 @@
       <c r="F307" t="s">
         <v>156</v>
       </c>
+      <c r="G307" t="s">
+        <v>457</v>
+      </c>
       <c r="I307">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>157</v>
       </c>
@@ -7970,11 +8890,14 @@
       <c r="F308" t="s">
         <v>23</v>
       </c>
+      <c r="G308" t="s">
+        <v>457</v>
+      </c>
       <c r="I308">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>158</v>
       </c>
@@ -7990,11 +8913,14 @@
       <c r="F309" t="s">
         <v>27</v>
       </c>
+      <c r="G309" t="s">
+        <v>457</v>
+      </c>
       <c r="I309">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>402</v>
       </c>
@@ -8010,11 +8936,14 @@
       <c r="F310" t="s">
         <v>16</v>
       </c>
+      <c r="G310" t="s">
+        <v>457</v>
+      </c>
       <c r="I310">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>159</v>
       </c>
@@ -8030,11 +8959,14 @@
       <c r="F311" t="s">
         <v>71</v>
       </c>
+      <c r="G311" t="s">
+        <v>457</v>
+      </c>
       <c r="I311">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>328</v>
       </c>
@@ -8050,11 +8982,14 @@
       <c r="F312" t="s">
         <v>160</v>
       </c>
+      <c r="G312" t="s">
+        <v>457</v>
+      </c>
       <c r="I312">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>161</v>
       </c>
@@ -8070,11 +9005,14 @@
       <c r="F313" t="s">
         <v>162</v>
       </c>
+      <c r="G313" t="s">
+        <v>457</v>
+      </c>
       <c r="I313">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>355</v>
       </c>
@@ -8090,11 +9028,14 @@
       <c r="F314" t="s">
         <v>153</v>
       </c>
+      <c r="G314" t="s">
+        <v>457</v>
+      </c>
       <c r="I314">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>163</v>
       </c>
@@ -8110,11 +9051,14 @@
       <c r="F315" t="s">
         <v>156</v>
       </c>
+      <c r="G315" t="s">
+        <v>457</v>
+      </c>
       <c r="I315">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>124</v>
       </c>
@@ -8130,11 +9074,14 @@
       <c r="F316" t="s">
         <v>151</v>
       </c>
+      <c r="G316" t="s">
+        <v>457</v>
+      </c>
       <c r="I316">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>164</v>
       </c>
@@ -8150,11 +9097,14 @@
       <c r="F317" t="s">
         <v>27</v>
       </c>
+      <c r="G317" t="s">
+        <v>457</v>
+      </c>
       <c r="I317">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>381</v>
       </c>
@@ -8170,11 +9120,14 @@
       <c r="F318" t="s">
         <v>160</v>
       </c>
+      <c r="G318" t="s">
+        <v>457</v>
+      </c>
       <c r="I318">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>393</v>
       </c>
@@ -8190,11 +9143,14 @@
       <c r="F319" t="s">
         <v>151</v>
       </c>
+      <c r="G319" t="s">
+        <v>457</v>
+      </c>
       <c r="I319">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>152</v>
       </c>
@@ -8210,11 +9166,14 @@
       <c r="F320" t="s">
         <v>153</v>
       </c>
+      <c r="G320" t="s">
+        <v>457</v>
+      </c>
       <c r="I320">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>73</v>
       </c>
@@ -8230,11 +9189,14 @@
       <c r="F321" t="s">
         <v>156</v>
       </c>
+      <c r="G321" t="s">
+        <v>457</v>
+      </c>
       <c r="I321">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>165</v>
       </c>
@@ -8250,11 +9212,14 @@
       <c r="F322" t="s">
         <v>156</v>
       </c>
+      <c r="G322" t="s">
+        <v>457</v>
+      </c>
       <c r="I322">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>370</v>
       </c>
@@ -8270,11 +9235,14 @@
       <c r="F323" t="s">
         <v>71</v>
       </c>
+      <c r="G323" t="s">
+        <v>457</v>
+      </c>
       <c r="I323">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>154</v>
       </c>
@@ -8290,11 +9258,14 @@
       <c r="F324" t="s">
         <v>160</v>
       </c>
+      <c r="G324" t="s">
+        <v>457</v>
+      </c>
       <c r="I324">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>166</v>
       </c>
@@ -8310,11 +9281,14 @@
       <c r="F325" t="s">
         <v>153</v>
       </c>
+      <c r="G325" t="s">
+        <v>457</v>
+      </c>
       <c r="I325">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>167</v>
       </c>
@@ -8330,11 +9304,14 @@
       <c r="F326" t="s">
         <v>155</v>
       </c>
+      <c r="G326" t="s">
+        <v>457</v>
+      </c>
       <c r="I326">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>168</v>
       </c>
@@ -8350,11 +9327,14 @@
       <c r="F327" t="s">
         <v>156</v>
       </c>
+      <c r="G327" t="s">
+        <v>457</v>
+      </c>
       <c r="I327">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>169</v>
       </c>
@@ -8370,11 +9350,14 @@
       <c r="F328" t="s">
         <v>16</v>
       </c>
+      <c r="G328" t="s">
+        <v>457</v>
+      </c>
       <c r="I328">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>403</v>
       </c>
@@ -8390,11 +9373,14 @@
       <c r="F329" t="s">
         <v>162</v>
       </c>
+      <c r="G329" t="s">
+        <v>457</v>
+      </c>
       <c r="I329">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
@@ -8410,11 +9396,14 @@
       <c r="F330" t="s">
         <v>23</v>
       </c>
+      <c r="G330" t="s">
+        <v>457</v>
+      </c>
       <c r="I330">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>349</v>
       </c>
@@ -8430,11 +9419,14 @@
       <c r="F331" t="s">
         <v>153</v>
       </c>
+      <c r="G331" t="s">
+        <v>457</v>
+      </c>
       <c r="I331">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>170</v>
       </c>
@@ -8450,11 +9442,14 @@
       <c r="F332" t="s">
         <v>71</v>
       </c>
+      <c r="G332" t="s">
+        <v>457</v>
+      </c>
       <c r="I332">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>404</v>
       </c>
@@ -8470,11 +9465,14 @@
       <c r="F333" t="s">
         <v>160</v>
       </c>
+      <c r="G333" t="s">
+        <v>457</v>
+      </c>
       <c r="I333">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>171</v>
       </c>
@@ -8490,11 +9488,14 @@
       <c r="F334" t="s">
         <v>23</v>
       </c>
+      <c r="G334" t="s">
+        <v>457</v>
+      </c>
       <c r="I334">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>172</v>
       </c>
@@ -8510,11 +9511,14 @@
       <c r="F335" t="s">
         <v>155</v>
       </c>
+      <c r="G335" t="s">
+        <v>457</v>
+      </c>
       <c r="I335">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>371</v>
       </c>
@@ -8530,11 +9534,14 @@
       <c r="F336" t="s">
         <v>160</v>
       </c>
+      <c r="G336" t="s">
+        <v>457</v>
+      </c>
       <c r="I336">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>173</v>
       </c>
@@ -8550,11 +9557,14 @@
       <c r="F337" t="s">
         <v>160</v>
       </c>
+      <c r="G337" t="s">
+        <v>457</v>
+      </c>
       <c r="I337">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>169</v>
       </c>
@@ -8570,11 +9580,14 @@
       <c r="F338" t="s">
         <v>156</v>
       </c>
+      <c r="G338" t="s">
+        <v>457</v>
+      </c>
       <c r="I338">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>371</v>
       </c>
@@ -8590,11 +9603,14 @@
       <c r="F339" t="s">
         <v>23</v>
       </c>
+      <c r="G339" t="s">
+        <v>457</v>
+      </c>
       <c r="I339">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>174</v>
       </c>
@@ -8610,11 +9626,14 @@
       <c r="F340" t="s">
         <v>156</v>
       </c>
+      <c r="G340" t="s">
+        <v>457</v>
+      </c>
       <c r="I340">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>175</v>
       </c>
@@ -8630,11 +9649,14 @@
       <c r="F341" t="s">
         <v>155</v>
       </c>
+      <c r="G341" t="s">
+        <v>457</v>
+      </c>
       <c r="I341">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>120</v>
       </c>
@@ -8650,11 +9672,14 @@
       <c r="F342" t="s">
         <v>151</v>
       </c>
+      <c r="G342" t="s">
+        <v>457</v>
+      </c>
       <c r="I342">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>176</v>
       </c>
@@ -8670,11 +9695,14 @@
       <c r="F343" t="s">
         <v>153</v>
       </c>
+      <c r="G343" t="s">
+        <v>457</v>
+      </c>
       <c r="I343">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>168</v>
       </c>
@@ -8690,11 +9718,14 @@
       <c r="F344" t="s">
         <v>16</v>
       </c>
+      <c r="G344" t="s">
+        <v>457</v>
+      </c>
       <c r="I344">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>435</v>
       </c>
@@ -8710,11 +9741,14 @@
       <c r="F345" t="s">
         <v>162</v>
       </c>
+      <c r="G345" t="s">
+        <v>457</v>
+      </c>
       <c r="I345">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>405</v>
       </c>
@@ -8730,11 +9764,14 @@
       <c r="F346" t="s">
         <v>74</v>
       </c>
+      <c r="G346" t="s">
+        <v>457</v>
+      </c>
       <c r="I346">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>150</v>
       </c>
@@ -8750,11 +9787,14 @@
       <c r="F347" t="s">
         <v>23</v>
       </c>
+      <c r="G347" t="s">
+        <v>457</v>
+      </c>
       <c r="I347">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>393</v>
       </c>
@@ -8770,11 +9810,14 @@
       <c r="F348" t="s">
         <v>151</v>
       </c>
+      <c r="G348" t="s">
+        <v>457</v>
+      </c>
       <c r="I348">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>370</v>
       </c>
@@ -8790,11 +9833,14 @@
       <c r="F349" t="s">
         <v>162</v>
       </c>
+      <c r="G349" t="s">
+        <v>457</v>
+      </c>
       <c r="I349">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>165</v>
       </c>
@@ -8810,11 +9856,14 @@
       <c r="F350" t="s">
         <v>23</v>
       </c>
+      <c r="G350" t="s">
+        <v>457</v>
+      </c>
       <c r="I350">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>349</v>
       </c>
@@ -8830,11 +9879,14 @@
       <c r="F351" t="s">
         <v>74</v>
       </c>
+      <c r="G351" t="s">
+        <v>457</v>
+      </c>
       <c r="I351">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>177</v>
       </c>
@@ -8850,11 +9902,14 @@
       <c r="F352" t="s">
         <v>156</v>
       </c>
+      <c r="G352" t="s">
+        <v>457</v>
+      </c>
       <c r="I352">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>406</v>
       </c>
@@ -8870,11 +9925,14 @@
       <c r="F353" t="s">
         <v>16</v>
       </c>
+      <c r="G353" t="s">
+        <v>457</v>
+      </c>
       <c r="I353">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>176</v>
       </c>
@@ -8890,11 +9948,14 @@
       <c r="F354" t="s">
         <v>151</v>
       </c>
+      <c r="G354" t="s">
+        <v>457</v>
+      </c>
       <c r="I354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>304</v>
       </c>
@@ -8910,11 +9971,14 @@
       <c r="F355" t="s">
         <v>153</v>
       </c>
+      <c r="G355" t="s">
+        <v>457</v>
+      </c>
       <c r="I355">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>371</v>
       </c>
@@ -8930,11 +9994,14 @@
       <c r="F356" t="s">
         <v>153</v>
       </c>
+      <c r="G356" t="s">
+        <v>457</v>
+      </c>
       <c r="I356">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>178</v>
       </c>
@@ -8950,11 +10017,14 @@
       <c r="F357" t="s">
         <v>23</v>
       </c>
+      <c r="G357" t="s">
+        <v>457</v>
+      </c>
       <c r="I357">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>349</v>
       </c>
@@ -8970,11 +10040,14 @@
       <c r="F358" t="s">
         <v>162</v>
       </c>
+      <c r="G358" t="s">
+        <v>457</v>
+      </c>
       <c r="I358">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>176</v>
       </c>
@@ -8990,11 +10063,14 @@
       <c r="F359" t="s">
         <v>153</v>
       </c>
+      <c r="G359" t="s">
+        <v>457</v>
+      </c>
       <c r="I359">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>407</v>
       </c>
@@ -9010,11 +10086,14 @@
       <c r="F360" t="s">
         <v>155</v>
       </c>
+      <c r="G360" t="s">
+        <v>457</v>
+      </c>
       <c r="I360">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>408</v>
       </c>
@@ -9030,11 +10109,14 @@
       <c r="F361" t="s">
         <v>162</v>
       </c>
+      <c r="G361" t="s">
+        <v>457</v>
+      </c>
       <c r="I361">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>179</v>
       </c>
@@ -9050,11 +10132,14 @@
       <c r="F362" t="s">
         <v>74</v>
       </c>
+      <c r="G362" t="s">
+        <v>457</v>
+      </c>
       <c r="I362">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>180</v>
       </c>
@@ -9070,11 +10155,14 @@
       <c r="F363" t="s">
         <v>151</v>
       </c>
+      <c r="G363" t="s">
+        <v>457</v>
+      </c>
       <c r="I363">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>174</v>
       </c>
@@ -9090,11 +10178,14 @@
       <c r="F364" t="s">
         <v>153</v>
       </c>
+      <c r="G364" t="s">
+        <v>457</v>
+      </c>
       <c r="I364">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>181</v>
       </c>
@@ -9110,11 +10201,14 @@
       <c r="F365" t="s">
         <v>155</v>
       </c>
+      <c r="G365" t="s">
+        <v>457</v>
+      </c>
       <c r="I365">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>375</v>
       </c>
@@ -9130,11 +10224,14 @@
       <c r="F366" t="s">
         <v>182</v>
       </c>
+      <c r="G366" t="s">
+        <v>457</v>
+      </c>
       <c r="I366">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>183</v>
       </c>
@@ -9150,11 +10247,14 @@
       <c r="F367" t="s">
         <v>23</v>
       </c>
+      <c r="G367" t="s">
+        <v>457</v>
+      </c>
       <c r="I367">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>164</v>
       </c>
@@ -9170,11 +10270,14 @@
       <c r="F368" t="s">
         <v>27</v>
       </c>
+      <c r="G368" t="s">
+        <v>457</v>
+      </c>
       <c r="I368">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>406</v>
       </c>
@@ -9190,11 +10293,14 @@
       <c r="F369" t="s">
         <v>16</v>
       </c>
+      <c r="G369" t="s">
+        <v>457</v>
+      </c>
       <c r="I369">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>184</v>
       </c>
@@ -9210,11 +10316,14 @@
       <c r="F370" t="s">
         <v>71</v>
       </c>
+      <c r="G370" t="s">
+        <v>457</v>
+      </c>
       <c r="I370">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>356</v>
       </c>
@@ -9230,11 +10339,14 @@
       <c r="F371" t="s">
         <v>160</v>
       </c>
+      <c r="G371" t="s">
+        <v>457</v>
+      </c>
       <c r="I371">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>447</v>
       </c>
@@ -9250,11 +10362,14 @@
       <c r="F372" t="s">
         <v>162</v>
       </c>
+      <c r="G372" t="s">
+        <v>457</v>
+      </c>
       <c r="I372">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>185</v>
       </c>
@@ -9270,11 +10385,14 @@
       <c r="F373" t="s">
         <v>160</v>
       </c>
+      <c r="G373" t="s">
+        <v>457</v>
+      </c>
       <c r="I373">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>409</v>
       </c>
@@ -9290,11 +10408,14 @@
       <c r="F374" t="s">
         <v>162</v>
       </c>
+      <c r="G374" t="s">
+        <v>457</v>
+      </c>
       <c r="I374">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>157</v>
       </c>
@@ -9310,11 +10431,14 @@
       <c r="F375" t="s">
         <v>74</v>
       </c>
+      <c r="G375" t="s">
+        <v>457</v>
+      </c>
       <c r="I375">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>410</v>
       </c>
@@ -9330,11 +10454,14 @@
       <c r="F376" t="s">
         <v>151</v>
       </c>
+      <c r="G376" t="s">
+        <v>457</v>
+      </c>
       <c r="I376">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>411</v>
       </c>
@@ -9350,11 +10477,14 @@
       <c r="F377" t="s">
         <v>153</v>
       </c>
+      <c r="G377" t="s">
+        <v>457</v>
+      </c>
       <c r="I377">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>170</v>
       </c>
@@ -9370,11 +10500,14 @@
       <c r="F378" t="s">
         <v>23</v>
       </c>
+      <c r="G378" t="s">
+        <v>457</v>
+      </c>
       <c r="I378">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>305</v>
       </c>
@@ -9390,11 +10523,14 @@
       <c r="F379" t="s">
         <v>27</v>
       </c>
+      <c r="G379" t="s">
+        <v>457</v>
+      </c>
       <c r="I379">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>36</v>
       </c>
@@ -9410,11 +10546,14 @@
       <c r="F380" t="s">
         <v>16</v>
       </c>
+      <c r="G380" t="s">
+        <v>457</v>
+      </c>
       <c r="I380">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>120</v>
       </c>
@@ -9430,11 +10569,14 @@
       <c r="F381" t="s">
         <v>74</v>
       </c>
+      <c r="G381" t="s">
+        <v>457</v>
+      </c>
       <c r="I381">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>146</v>
       </c>
@@ -9450,11 +10592,14 @@
       <c r="F382" t="s">
         <v>162</v>
       </c>
+      <c r="G382" t="s">
+        <v>457</v>
+      </c>
       <c r="I382">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>186</v>
       </c>
@@ -9470,11 +10615,14 @@
       <c r="F383" t="s">
         <v>182</v>
       </c>
+      <c r="G383" t="s">
+        <v>457</v>
+      </c>
       <c r="I383">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>170</v>
       </c>
@@ -9490,11 +10638,14 @@
       <c r="F384" t="s">
         <v>74</v>
       </c>
+      <c r="G384" t="s">
+        <v>457</v>
+      </c>
       <c r="I384">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>412</v>
       </c>
@@ -9510,11 +10661,14 @@
       <c r="F385" t="s">
         <v>23</v>
       </c>
+      <c r="G385" t="s">
+        <v>457</v>
+      </c>
       <c r="I385">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>187</v>
       </c>
@@ -9530,11 +10684,14 @@
       <c r="F386" t="s">
         <v>182</v>
       </c>
+      <c r="G386" t="s">
+        <v>457</v>
+      </c>
       <c r="I386">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>188</v>
       </c>
@@ -9550,11 +10707,14 @@
       <c r="F387" t="s">
         <v>74</v>
       </c>
+      <c r="G387" t="s">
+        <v>457</v>
+      </c>
       <c r="I387">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>189</v>
       </c>
@@ -9570,11 +10730,14 @@
       <c r="F388" t="s">
         <v>151</v>
       </c>
+      <c r="G388" t="s">
+        <v>457</v>
+      </c>
       <c r="I388">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>190</v>
       </c>
@@ -9590,11 +10753,14 @@
       <c r="F389" t="s">
         <v>153</v>
       </c>
+      <c r="G389" t="s">
+        <v>457</v>
+      </c>
       <c r="I389">
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>306</v>
       </c>
@@ -9610,11 +10776,14 @@
       <c r="F390" t="s">
         <v>155</v>
       </c>
+      <c r="G390" t="s">
+        <v>457</v>
+      </c>
       <c r="I390">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>307</v>
       </c>
@@ -9630,11 +10799,14 @@
       <c r="F391" t="s">
         <v>191</v>
       </c>
+      <c r="G391" t="s">
+        <v>457</v>
+      </c>
       <c r="I391">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>355</v>
       </c>
@@ -9650,11 +10822,14 @@
       <c r="F392" t="s">
         <v>23</v>
       </c>
+      <c r="G392" t="s">
+        <v>457</v>
+      </c>
       <c r="I392">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>192</v>
       </c>
@@ -9670,11 +10845,14 @@
       <c r="F393" t="s">
         <v>16</v>
       </c>
+      <c r="G393" t="s">
+        <v>457</v>
+      </c>
       <c r="I393">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>448</v>
       </c>
@@ -9690,11 +10868,14 @@
       <c r="F394" t="s">
         <v>71</v>
       </c>
+      <c r="G394" t="s">
+        <v>457</v>
+      </c>
       <c r="I394">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>308</v>
       </c>
@@ -9710,11 +10891,14 @@
       <c r="F395" t="s">
         <v>160</v>
       </c>
+      <c r="G395" t="s">
+        <v>457</v>
+      </c>
       <c r="I395">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>193</v>
       </c>
@@ -9730,11 +10914,14 @@
       <c r="F396" t="s">
         <v>194</v>
       </c>
+      <c r="G396" t="s">
+        <v>457</v>
+      </c>
       <c r="I396">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>187</v>
       </c>
@@ -9750,11 +10937,14 @@
       <c r="F397" t="s">
         <v>191</v>
       </c>
+      <c r="G397" t="s">
+        <v>457</v>
+      </c>
       <c r="I397">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>195</v>
       </c>
@@ -9770,11 +10960,14 @@
       <c r="F398" t="s">
         <v>23</v>
       </c>
+      <c r="G398" t="s">
+        <v>457</v>
+      </c>
       <c r="I398">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>196</v>
       </c>
@@ -9790,11 +10983,14 @@
       <c r="F399" t="s">
         <v>197</v>
       </c>
+      <c r="G399" t="s">
+        <v>457</v>
+      </c>
       <c r="I399">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>198</v>
       </c>
@@ -9810,11 +11006,14 @@
       <c r="F400" t="s">
         <v>155</v>
       </c>
+      <c r="G400" t="s">
+        <v>457</v>
+      </c>
       <c r="I400">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>413</v>
       </c>
@@ -9830,11 +11029,14 @@
       <c r="F401" t="s">
         <v>197</v>
       </c>
+      <c r="G401" t="s">
+        <v>457</v>
+      </c>
       <c r="I401">
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>199</v>
       </c>
@@ -9850,11 +11052,14 @@
       <c r="F402" t="s">
         <v>74</v>
       </c>
+      <c r="G402" t="s">
+        <v>457</v>
+      </c>
       <c r="I402">
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>200</v>
       </c>
@@ -9870,11 +11075,14 @@
       <c r="F403" t="s">
         <v>16</v>
       </c>
+      <c r="G403" t="s">
+        <v>457</v>
+      </c>
       <c r="I403">
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>201</v>
       </c>
@@ -9890,11 +11098,14 @@
       <c r="F404" t="s">
         <v>160</v>
       </c>
+      <c r="G404" t="s">
+        <v>457</v>
+      </c>
       <c r="I404">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>180</v>
       </c>
@@ -9910,11 +11121,14 @@
       <c r="F405" t="s">
         <v>23</v>
       </c>
+      <c r="G405" t="s">
+        <v>457</v>
+      </c>
       <c r="I405">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>202</v>
       </c>
@@ -9930,11 +11144,14 @@
       <c r="F406" t="s">
         <v>194</v>
       </c>
+      <c r="G406" t="s">
+        <v>457</v>
+      </c>
       <c r="I406">
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>203</v>
       </c>
@@ -9950,11 +11167,14 @@
       <c r="F407" t="s">
         <v>23</v>
       </c>
+      <c r="G407" t="s">
+        <v>457</v>
+      </c>
       <c r="I407">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>204</v>
       </c>
@@ -9970,11 +11190,14 @@
       <c r="F408" t="s">
         <v>74</v>
       </c>
+      <c r="G408" t="s">
+        <v>457</v>
+      </c>
       <c r="I408">
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>205</v>
       </c>
@@ -9990,11 +11213,14 @@
       <c r="F409" t="s">
         <v>151</v>
       </c>
+      <c r="G409" t="s">
+        <v>457</v>
+      </c>
       <c r="I409">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>357</v>
       </c>
@@ -10010,11 +11236,14 @@
       <c r="F410" t="s">
         <v>153</v>
       </c>
+      <c r="G410" t="s">
+        <v>457</v>
+      </c>
       <c r="I410">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>309</v>
       </c>
@@ -10030,11 +11259,14 @@
       <c r="F411" t="s">
         <v>155</v>
       </c>
+      <c r="G411" t="s">
+        <v>457</v>
+      </c>
       <c r="I411">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>206</v>
       </c>
@@ -10050,11 +11282,14 @@
       <c r="F412" t="s">
         <v>191</v>
       </c>
+      <c r="G412" t="s">
+        <v>457</v>
+      </c>
       <c r="I412">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>414</v>
       </c>
@@ -10070,11 +11305,14 @@
       <c r="F413" t="s">
         <v>23</v>
       </c>
+      <c r="G413" t="s">
+        <v>457</v>
+      </c>
       <c r="I413">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>415</v>
       </c>
@@ -10090,11 +11328,14 @@
       <c r="F414" t="s">
         <v>16</v>
       </c>
+      <c r="G414" t="s">
+        <v>457</v>
+      </c>
       <c r="I414">
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>207</v>
       </c>
@@ -10110,11 +11351,14 @@
       <c r="F415" t="s">
         <v>71</v>
       </c>
+      <c r="G415" t="s">
+        <v>457</v>
+      </c>
       <c r="I415">
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>208</v>
       </c>
@@ -10130,11 +11374,14 @@
       <c r="F416" t="s">
         <v>160</v>
       </c>
+      <c r="G416" t="s">
+        <v>457</v>
+      </c>
       <c r="I416">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>293</v>
       </c>
@@ -10150,11 +11397,14 @@
       <c r="F417" t="s">
         <v>194</v>
       </c>
+      <c r="G417" t="s">
+        <v>457</v>
+      </c>
       <c r="I417">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>413</v>
       </c>
@@ -10170,11 +11420,14 @@
       <c r="F418" t="s">
         <v>197</v>
       </c>
+      <c r="G418" t="s">
+        <v>457</v>
+      </c>
       <c r="I418">
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>449</v>
       </c>
@@ -10190,11 +11443,14 @@
       <c r="F419" t="s">
         <v>209</v>
       </c>
+      <c r="G419" t="s">
+        <v>457</v>
+      </c>
       <c r="I419">
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>210</v>
       </c>
@@ -10210,11 +11466,14 @@
       <c r="F420" t="s">
         <v>71</v>
       </c>
+      <c r="G420" t="s">
+        <v>457</v>
+      </c>
       <c r="I420">
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>310</v>
       </c>
@@ -10230,11 +11489,14 @@
       <c r="F421" t="s">
         <v>160</v>
       </c>
+      <c r="G421" t="s">
+        <v>457</v>
+      </c>
       <c r="I421">
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>211</v>
       </c>
@@ -10250,11 +11512,14 @@
       <c r="F422" t="s">
         <v>151</v>
       </c>
+      <c r="G422" t="s">
+        <v>457</v>
+      </c>
       <c r="I422">
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>212</v>
       </c>
@@ -10270,11 +11535,14 @@
       <c r="F423" t="s">
         <v>191</v>
       </c>
+      <c r="G423" t="s">
+        <v>457</v>
+      </c>
       <c r="I423">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>416</v>
       </c>
@@ -10290,11 +11558,14 @@
       <c r="F424" t="s">
         <v>209</v>
       </c>
+      <c r="G424" t="s">
+        <v>457</v>
+      </c>
       <c r="I424">
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>357</v>
       </c>
@@ -10310,11 +11581,14 @@
       <c r="F425" t="s">
         <v>71</v>
       </c>
+      <c r="G425" t="s">
+        <v>457</v>
+      </c>
       <c r="I425">
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>213</v>
       </c>
@@ -10330,11 +11604,14 @@
       <c r="F426" t="s">
         <v>153</v>
       </c>
+      <c r="G426" t="s">
+        <v>457</v>
+      </c>
       <c r="I426">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>214</v>
       </c>
@@ -10350,11 +11627,14 @@
       <c r="F427" t="s">
         <v>209</v>
       </c>
+      <c r="G427" t="s">
+        <v>457</v>
+      </c>
       <c r="I427">
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>215</v>
       </c>
@@ -10370,11 +11650,14 @@
       <c r="F428" t="s">
         <v>16</v>
       </c>
+      <c r="G428" t="s">
+        <v>457</v>
+      </c>
       <c r="I428">
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>414</v>
       </c>
@@ -10390,11 +11673,14 @@
       <c r="F429" t="s">
         <v>155</v>
       </c>
+      <c r="G429" t="s">
+        <v>457</v>
+      </c>
       <c r="I429">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>216</v>
       </c>
@@ -10410,11 +11696,14 @@
       <c r="F430" t="s">
         <v>194</v>
       </c>
+      <c r="G430" t="s">
+        <v>457</v>
+      </c>
       <c r="I430">
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>217</v>
       </c>
@@ -10430,11 +11719,14 @@
       <c r="F431" t="s">
         <v>155</v>
       </c>
+      <c r="G431" t="s">
+        <v>457</v>
+      </c>
       <c r="I431">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>145</v>
       </c>
@@ -10450,11 +11742,14 @@
       <c r="F432" t="s">
         <v>74</v>
       </c>
+      <c r="G432" t="s">
+        <v>457</v>
+      </c>
       <c r="I432">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>218</v>
       </c>
@@ -10470,11 +11765,14 @@
       <c r="F433" t="s">
         <v>160</v>
       </c>
+      <c r="G433" t="s">
+        <v>457</v>
+      </c>
       <c r="I433">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>450</v>
       </c>
@@ -10490,11 +11788,14 @@
       <c r="F434" t="s">
         <v>23</v>
       </c>
+      <c r="G434" t="s">
+        <v>457</v>
+      </c>
       <c r="I434">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>311</v>
       </c>
@@ -10510,11 +11811,14 @@
       <c r="F435" t="s">
         <v>191</v>
       </c>
+      <c r="G435" t="s">
+        <v>457</v>
+      </c>
       <c r="I435">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>219</v>
       </c>
@@ -10530,11 +11834,14 @@
       <c r="F436" t="s">
         <v>197</v>
       </c>
+      <c r="G436" t="s">
+        <v>457</v>
+      </c>
       <c r="I436">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>303</v>
       </c>
@@ -10550,11 +11857,14 @@
       <c r="F437" t="s">
         <v>23</v>
       </c>
+      <c r="G437" t="s">
+        <v>457</v>
+      </c>
       <c r="I437">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>417</v>
       </c>
@@ -10570,11 +11880,14 @@
       <c r="F438" t="s">
         <v>194</v>
       </c>
+      <c r="G438" t="s">
+        <v>457</v>
+      </c>
       <c r="I438">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>220</v>
       </c>
@@ -10590,11 +11903,14 @@
       <c r="F439" t="s">
         <v>155</v>
       </c>
+      <c r="G439" t="s">
+        <v>457</v>
+      </c>
       <c r="I439">
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>312</v>
       </c>
@@ -10610,11 +11926,14 @@
       <c r="F440" t="s">
         <v>74</v>
       </c>
+      <c r="G440" t="s">
+        <v>457</v>
+      </c>
       <c r="I440">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>145</v>
       </c>
@@ -10630,11 +11949,14 @@
       <c r="F441" t="s">
         <v>151</v>
       </c>
+      <c r="G441" t="s">
+        <v>457</v>
+      </c>
       <c r="I441">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>450</v>
       </c>
@@ -10650,11 +11972,14 @@
       <c r="F442" t="s">
         <v>74</v>
       </c>
+      <c r="G442" t="s">
+        <v>457</v>
+      </c>
       <c r="I442">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>221</v>
       </c>
@@ -10670,11 +11995,14 @@
       <c r="F443" t="s">
         <v>151</v>
       </c>
+      <c r="G443" t="s">
+        <v>457</v>
+      </c>
       <c r="I443">
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>222</v>
       </c>
@@ -10690,11 +12018,14 @@
       <c r="F444" t="s">
         <v>153</v>
       </c>
+      <c r="G444" t="s">
+        <v>457</v>
+      </c>
       <c r="I444">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>223</v>
       </c>
@@ -10710,11 +12041,14 @@
       <c r="F445" t="s">
         <v>155</v>
       </c>
+      <c r="G445" t="s">
+        <v>457</v>
+      </c>
       <c r="I445">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>224</v>
       </c>
@@ -10730,11 +12064,14 @@
       <c r="F446" t="s">
         <v>191</v>
       </c>
+      <c r="G446" t="s">
+        <v>457</v>
+      </c>
       <c r="I446">
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>225</v>
       </c>
@@ -10750,11 +12087,14 @@
       <c r="F447" t="s">
         <v>23</v>
       </c>
+      <c r="G447" t="s">
+        <v>457</v>
+      </c>
       <c r="I447">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>309</v>
       </c>
@@ -10770,11 +12110,14 @@
       <c r="F448" t="s">
         <v>16</v>
       </c>
+      <c r="G448" t="s">
+        <v>457</v>
+      </c>
       <c r="I448">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>207</v>
       </c>
@@ -10790,11 +12133,14 @@
       <c r="F449" t="s">
         <v>71</v>
       </c>
+      <c r="G449" t="s">
+        <v>457</v>
+      </c>
       <c r="I449">
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>436</v>
       </c>
@@ -10810,11 +12156,14 @@
       <c r="F450" t="s">
         <v>160</v>
       </c>
+      <c r="G450" t="s">
+        <v>457</v>
+      </c>
       <c r="I450">
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>313</v>
       </c>
@@ -10830,11 +12179,14 @@
       <c r="F451" t="s">
         <v>194</v>
       </c>
+      <c r="G451" t="s">
+        <v>457</v>
+      </c>
       <c r="I451">
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>226</v>
       </c>
@@ -10850,11 +12202,14 @@
       <c r="F452" t="s">
         <v>197</v>
       </c>
+      <c r="G452" t="s">
+        <v>457</v>
+      </c>
       <c r="I452">
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>227</v>
       </c>
@@ -10870,11 +12225,14 @@
       <c r="F453" t="s">
         <v>209</v>
       </c>
+      <c r="G453" t="s">
+        <v>457</v>
+      </c>
       <c r="I453">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>228</v>
       </c>
@@ -10890,11 +12248,14 @@
       <c r="F454" t="s">
         <v>191</v>
       </c>
+      <c r="G454" t="s">
+        <v>457</v>
+      </c>
       <c r="I454">
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>451</v>
       </c>
@@ -10910,11 +12271,14 @@
       <c r="F455" t="s">
         <v>71</v>
       </c>
+      <c r="G455" t="s">
+        <v>457</v>
+      </c>
       <c r="I455">
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>372</v>
       </c>
@@ -10930,11 +12294,14 @@
       <c r="F456" t="s">
         <v>23</v>
       </c>
+      <c r="G456" t="s">
+        <v>457</v>
+      </c>
       <c r="I456">
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>225</v>
       </c>
@@ -10950,11 +12317,14 @@
       <c r="F457" t="s">
         <v>16</v>
       </c>
+      <c r="G457" t="s">
+        <v>457</v>
+      </c>
       <c r="I457">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>229</v>
       </c>
@@ -10970,11 +12340,14 @@
       <c r="F458" t="s">
         <v>155</v>
       </c>
+      <c r="G458" t="s">
+        <v>457</v>
+      </c>
       <c r="I458">
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>452</v>
       </c>
@@ -10990,11 +12363,14 @@
       <c r="F459" t="s">
         <v>153</v>
       </c>
+      <c r="G459" t="s">
+        <v>457</v>
+      </c>
       <c r="I459">
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>230</v>
       </c>
@@ -11010,11 +12386,14 @@
       <c r="F460" t="s">
         <v>23</v>
       </c>
+      <c r="G460" t="s">
+        <v>457</v>
+      </c>
       <c r="I460">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>231</v>
       </c>
@@ -11030,11 +12409,14 @@
       <c r="F461" t="s">
         <v>74</v>
       </c>
+      <c r="G461" t="s">
+        <v>457</v>
+      </c>
       <c r="I461">
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>358</v>
       </c>
@@ -11050,11 +12432,14 @@
       <c r="F462" t="s">
         <v>155</v>
       </c>
+      <c r="G462" t="s">
+        <v>457</v>
+      </c>
       <c r="I462">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>201</v>
       </c>
@@ -11070,11 +12455,14 @@
       <c r="F463" t="s">
         <v>155</v>
       </c>
+      <c r="G463" t="s">
+        <v>457</v>
+      </c>
       <c r="I463">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>359</v>
       </c>
@@ -11090,11 +12478,14 @@
       <c r="F464" t="s">
         <v>209</v>
       </c>
+      <c r="G464" t="s">
+        <v>457</v>
+      </c>
       <c r="I464">
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>232</v>
       </c>
@@ -11110,11 +12501,14 @@
       <c r="F465" t="s">
         <v>160</v>
       </c>
+      <c r="G465" t="s">
+        <v>457</v>
+      </c>
       <c r="I465">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>233</v>
       </c>
@@ -11130,11 +12524,14 @@
       <c r="F466" t="s">
         <v>191</v>
       </c>
+      <c r="G466" t="s">
+        <v>457</v>
+      </c>
       <c r="I466">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>234</v>
       </c>
@@ -11150,11 +12547,14 @@
       <c r="F467" t="s">
         <v>155</v>
       </c>
+      <c r="G467" t="s">
+        <v>457</v>
+      </c>
       <c r="I467">
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>201</v>
       </c>
@@ -11170,11 +12570,14 @@
       <c r="F468" t="s">
         <v>74</v>
       </c>
+      <c r="G468" t="s">
+        <v>457</v>
+      </c>
       <c r="I468">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>235</v>
       </c>
@@ -11190,11 +12593,14 @@
       <c r="F469" t="s">
         <v>236</v>
       </c>
+      <c r="G469" t="s">
+        <v>457</v>
+      </c>
       <c r="I469">
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>373</v>
       </c>
@@ -11210,11 +12616,14 @@
       <c r="F470" t="s">
         <v>151</v>
       </c>
+      <c r="G470" t="s">
+        <v>457</v>
+      </c>
       <c r="I470">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>213</v>
       </c>
@@ -11230,11 +12639,14 @@
       <c r="F471" t="s">
         <v>153</v>
       </c>
+      <c r="G471" t="s">
+        <v>457</v>
+      </c>
       <c r="I471">
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>314</v>
       </c>
@@ -11250,11 +12662,14 @@
       <c r="F472" t="s">
         <v>155</v>
       </c>
+      <c r="G472" t="s">
+        <v>457</v>
+      </c>
       <c r="I472">
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>215</v>
       </c>
@@ -11270,11 +12685,14 @@
       <c r="F473" t="s">
         <v>191</v>
       </c>
+      <c r="G473" t="s">
+        <v>457</v>
+      </c>
       <c r="I473">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>230</v>
       </c>
@@ -11290,11 +12708,14 @@
       <c r="F474" t="s">
         <v>23</v>
       </c>
+      <c r="G474" t="s">
+        <v>457</v>
+      </c>
       <c r="I474">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>225</v>
       </c>
@@ -11310,11 +12731,14 @@
       <c r="F475" t="s">
         <v>16</v>
       </c>
+      <c r="G475" t="s">
+        <v>457</v>
+      </c>
       <c r="I475">
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>315</v>
       </c>
@@ -11330,11 +12754,14 @@
       <c r="F476" t="s">
         <v>71</v>
       </c>
+      <c r="G476" t="s">
+        <v>457</v>
+      </c>
       <c r="I476">
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>316</v>
       </c>
@@ -11350,11 +12777,14 @@
       <c r="F477" t="s">
         <v>160</v>
       </c>
+      <c r="G477" t="s">
+        <v>457</v>
+      </c>
       <c r="I477">
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>313</v>
       </c>
@@ -11370,11 +12800,14 @@
       <c r="F478" t="s">
         <v>194</v>
       </c>
+      <c r="G478" t="s">
+        <v>457</v>
+      </c>
       <c r="I478">
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>237</v>
       </c>
@@ -11390,11 +12823,14 @@
       <c r="F479" t="s">
         <v>197</v>
       </c>
+      <c r="G479" t="s">
+        <v>457</v>
+      </c>
       <c r="I479">
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>208</v>
       </c>
@@ -11410,11 +12846,14 @@
       <c r="F480" t="s">
         <v>209</v>
       </c>
+      <c r="G480" t="s">
+        <v>457</v>
+      </c>
       <c r="I480">
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>238</v>
       </c>
@@ -11430,11 +12869,14 @@
       <c r="F481" t="s">
         <v>71</v>
       </c>
+      <c r="G481" t="s">
+        <v>457</v>
+      </c>
       <c r="I481">
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>237</v>
       </c>
@@ -11450,11 +12892,14 @@
       <c r="F482" t="s">
         <v>71</v>
       </c>
+      <c r="G482" t="s">
+        <v>457</v>
+      </c>
       <c r="I482">
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>239</v>
       </c>
@@ -11470,11 +12915,14 @@
       <c r="F483" t="s">
         <v>197</v>
       </c>
+      <c r="G483" t="s">
+        <v>457</v>
+      </c>
       <c r="I483">
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>202</v>
       </c>
@@ -11490,11 +12938,14 @@
       <c r="F484" t="s">
         <v>151</v>
       </c>
+      <c r="G484" t="s">
+        <v>457</v>
+      </c>
       <c r="I484">
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>452</v>
       </c>
@@ -11510,11 +12961,14 @@
       <c r="F485" t="s">
         <v>74</v>
       </c>
+      <c r="G485" t="s">
+        <v>457</v>
+      </c>
       <c r="I485">
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>239</v>
       </c>
@@ -11530,11 +12984,14 @@
       <c r="F486" t="s">
         <v>191</v>
       </c>
+      <c r="G486" t="s">
+        <v>457</v>
+      </c>
       <c r="I486">
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>317</v>
       </c>
@@ -11550,11 +13007,14 @@
       <c r="F487" t="s">
         <v>153</v>
       </c>
+      <c r="G487" t="s">
+        <v>457</v>
+      </c>
       <c r="I487">
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>330</v>
       </c>
@@ -11570,11 +13030,14 @@
       <c r="F488" t="s">
         <v>160</v>
       </c>
+      <c r="G488" t="s">
+        <v>457</v>
+      </c>
       <c r="I488">
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>240</v>
       </c>
@@ -11590,11 +13053,14 @@
       <c r="F489" t="s">
         <v>71</v>
       </c>
+      <c r="G489" t="s">
+        <v>457</v>
+      </c>
       <c r="I489">
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>437</v>
       </c>
@@ -11610,11 +13076,14 @@
       <c r="F490" t="s">
         <v>155</v>
       </c>
+      <c r="G490" t="s">
+        <v>457</v>
+      </c>
       <c r="I490">
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>241</v>
       </c>
@@ -11630,11 +13099,14 @@
       <c r="F491" t="s">
         <v>151</v>
       </c>
+      <c r="G491" t="s">
+        <v>457</v>
+      </c>
       <c r="I491">
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>413</v>
       </c>
@@ -11650,11 +13122,14 @@
       <c r="F492" t="s">
         <v>191</v>
       </c>
+      <c r="G492" t="s">
+        <v>457</v>
+      </c>
       <c r="I492">
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>453</v>
       </c>
@@ -11670,11 +13145,14 @@
       <c r="F493" t="s">
         <v>209</v>
       </c>
+      <c r="G493" t="s">
+        <v>457</v>
+      </c>
       <c r="I493">
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>242</v>
       </c>
@@ -11690,11 +13168,14 @@
       <c r="F494" t="s">
         <v>23</v>
       </c>
+      <c r="G494" t="s">
+        <v>457</v>
+      </c>
       <c r="I494">
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>331</v>
       </c>
@@ -11710,11 +13191,14 @@
       <c r="F495" t="s">
         <v>194</v>
       </c>
+      <c r="G495" t="s">
+        <v>457</v>
+      </c>
       <c r="I495">
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>418</v>
       </c>
@@ -11730,11 +13214,14 @@
       <c r="F496" t="s">
         <v>153</v>
       </c>
+      <c r="G496" t="s">
+        <v>457</v>
+      </c>
       <c r="I496">
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>243</v>
       </c>
@@ -11750,11 +13237,14 @@
       <c r="F497" t="s">
         <v>194</v>
       </c>
+      <c r="G497" t="s">
+        <v>457</v>
+      </c>
       <c r="I497">
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>318</v>
       </c>
@@ -11770,11 +13260,14 @@
       <c r="F498" t="s">
         <v>23</v>
       </c>
+      <c r="G498" t="s">
+        <v>457</v>
+      </c>
       <c r="I498">
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>244</v>
       </c>
@@ -11790,11 +13283,14 @@
       <c r="F499" t="s">
         <v>194</v>
       </c>
+      <c r="G499" t="s">
+        <v>457</v>
+      </c>
       <c r="I499">
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>245</v>
       </c>
@@ -11810,11 +13306,14 @@
       <c r="F500" t="s">
         <v>74</v>
       </c>
+      <c r="G500" t="s">
+        <v>457</v>
+      </c>
       <c r="I500">
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>247</v>
       </c>
@@ -11830,11 +13329,14 @@
       <c r="F501" t="s">
         <v>248</v>
       </c>
+      <c r="G501" t="s">
+        <v>457</v>
+      </c>
       <c r="I501">
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>249</v>
       </c>
@@ -11850,11 +13352,14 @@
       <c r="F502" t="s">
         <v>151</v>
       </c>
+      <c r="G502" t="s">
+        <v>457</v>
+      </c>
       <c r="I502">
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>250</v>
       </c>
@@ -11870,11 +13375,14 @@
       <c r="F503" t="s">
         <v>153</v>
       </c>
+      <c r="G503" t="s">
+        <v>457</v>
+      </c>
       <c r="I503">
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>455</v>
       </c>
@@ -11890,11 +13398,14 @@
       <c r="F504" t="s">
         <v>155</v>
       </c>
+      <c r="G504" t="s">
+        <v>457</v>
+      </c>
       <c r="I504">
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>251</v>
       </c>
@@ -11910,11 +13421,14 @@
       <c r="F505" t="s">
         <v>191</v>
       </c>
+      <c r="G505" t="s">
+        <v>457</v>
+      </c>
       <c r="I505">
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>419</v>
       </c>
@@ -11930,11 +13444,14 @@
       <c r="F506" t="s">
         <v>23</v>
       </c>
+      <c r="G506" t="s">
+        <v>457</v>
+      </c>
       <c r="I506">
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>252</v>
       </c>
@@ -11950,11 +13467,14 @@
       <c r="F507" t="s">
         <v>16</v>
       </c>
+      <c r="G507" t="s">
+        <v>457</v>
+      </c>
       <c r="I507">
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>438</v>
       </c>
@@ -11970,11 +13490,14 @@
       <c r="F508" t="s">
         <v>71</v>
       </c>
+      <c r="G508" t="s">
+        <v>457</v>
+      </c>
       <c r="I508">
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>253</v>
       </c>
@@ -11990,11 +13513,14 @@
       <c r="F509" t="s">
         <v>160</v>
       </c>
+      <c r="G509" t="s">
+        <v>457</v>
+      </c>
       <c r="I509">
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>439</v>
       </c>
@@ -12010,11 +13536,14 @@
       <c r="F510" t="s">
         <v>194</v>
       </c>
+      <c r="G510" t="s">
+        <v>457</v>
+      </c>
       <c r="I510">
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>420</v>
       </c>
@@ -12030,11 +13559,14 @@
       <c r="F511" t="s">
         <v>254</v>
       </c>
+      <c r="G511" t="s">
+        <v>457</v>
+      </c>
       <c r="I511">
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>255</v>
       </c>
@@ -12050,11 +13582,14 @@
       <c r="F512" t="s">
         <v>209</v>
       </c>
+      <c r="G512" t="s">
+        <v>457</v>
+      </c>
       <c r="I512">
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>332</v>
       </c>
@@ -12070,11 +13605,14 @@
       <c r="F513" t="s">
         <v>23</v>
       </c>
+      <c r="G513" t="s">
+        <v>457</v>
+      </c>
       <c r="I513">
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>421</v>
       </c>
@@ -12090,11 +13628,14 @@
       <c r="F514" t="s">
         <v>74</v>
       </c>
+      <c r="G514" t="s">
+        <v>457</v>
+      </c>
       <c r="I514">
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>440</v>
       </c>
@@ -12110,11 +13651,14 @@
       <c r="F515" t="s">
         <v>153</v>
       </c>
+      <c r="G515" t="s">
+        <v>457</v>
+      </c>
       <c r="I515">
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>256</v>
       </c>
@@ -12130,11 +13674,14 @@
       <c r="F516" t="s">
         <v>155</v>
       </c>
+      <c r="G516" t="s">
+        <v>457</v>
+      </c>
       <c r="I516">
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>360</v>
       </c>
@@ -12150,11 +13697,14 @@
       <c r="F517" t="s">
         <v>191</v>
       </c>
+      <c r="G517" t="s">
+        <v>457</v>
+      </c>
       <c r="I517">
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>319</v>
       </c>
@@ -12170,11 +13720,14 @@
       <c r="F518" t="s">
         <v>16</v>
       </c>
+      <c r="G518" t="s">
+        <v>457</v>
+      </c>
       <c r="I518">
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>257</v>
       </c>
@@ -12190,11 +13743,14 @@
       <c r="F519" t="s">
         <v>209</v>
       </c>
+      <c r="G519" t="s">
+        <v>457</v>
+      </c>
       <c r="I519">
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>361</v>
       </c>
@@ -12210,11 +13766,14 @@
       <c r="F520" t="s">
         <v>151</v>
       </c>
+      <c r="G520" t="s">
+        <v>457</v>
+      </c>
       <c r="I520">
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>422</v>
       </c>
@@ -12230,11 +13789,14 @@
       <c r="F521" t="s">
         <v>155</v>
       </c>
+      <c r="G521" t="s">
+        <v>457</v>
+      </c>
       <c r="I521">
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>258</v>
       </c>
@@ -12250,11 +13812,14 @@
       <c r="F522" t="s">
         <v>23</v>
       </c>
+      <c r="G522" t="s">
+        <v>457</v>
+      </c>
       <c r="I522">
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>320</v>
       </c>
@@ -12270,11 +13835,14 @@
       <c r="F523" t="s">
         <v>160</v>
       </c>
+      <c r="G523" t="s">
+        <v>457</v>
+      </c>
       <c r="I523">
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>319</v>
       </c>
@@ -12290,11 +13858,14 @@
       <c r="F524" t="s">
         <v>74</v>
       </c>
+      <c r="G524" t="s">
+        <v>457</v>
+      </c>
       <c r="I524">
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>454</v>
       </c>
@@ -12310,11 +13881,14 @@
       <c r="F525" t="s">
         <v>191</v>
       </c>
+      <c r="G525" t="s">
+        <v>457</v>
+      </c>
       <c r="I525">
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>259</v>
       </c>
@@ -12330,11 +13904,14 @@
       <c r="F526" t="s">
         <v>16</v>
       </c>
+      <c r="G526" t="s">
+        <v>457</v>
+      </c>
       <c r="I526">
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>260</v>
       </c>
@@ -12350,11 +13927,14 @@
       <c r="F527" t="s">
         <v>74</v>
       </c>
+      <c r="G527" t="s">
+        <v>457</v>
+      </c>
       <c r="I527">
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>261</v>
       </c>
@@ -12370,11 +13950,14 @@
       <c r="F528" t="s">
         <v>248</v>
       </c>
+      <c r="G528" t="s">
+        <v>457</v>
+      </c>
       <c r="I528">
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>262</v>
       </c>
@@ -12390,11 +13973,14 @@
       <c r="F529" t="s">
         <v>151</v>
       </c>
+      <c r="G529" t="s">
+        <v>457</v>
+      </c>
       <c r="I529">
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>263</v>
       </c>
@@ -12410,11 +13996,14 @@
       <c r="F530" t="s">
         <v>153</v>
       </c>
+      <c r="G530" t="s">
+        <v>457</v>
+      </c>
       <c r="I530">
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>423</v>
       </c>
@@ -12430,11 +14019,14 @@
       <c r="F531" t="s">
         <v>155</v>
       </c>
+      <c r="G531" t="s">
+        <v>457</v>
+      </c>
       <c r="I531">
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>264</v>
       </c>
@@ -12450,11 +14042,14 @@
       <c r="F532" t="s">
         <v>191</v>
       </c>
+      <c r="G532" t="s">
+        <v>457</v>
+      </c>
       <c r="I532">
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>253</v>
       </c>
@@ -12470,11 +14065,14 @@
       <c r="F533" t="s">
         <v>23</v>
       </c>
+      <c r="G533" t="s">
+        <v>457</v>
+      </c>
       <c r="I533">
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>265</v>
       </c>
@@ -12490,11 +14088,14 @@
       <c r="F534" t="s">
         <v>16</v>
       </c>
+      <c r="G534" t="s">
+        <v>457</v>
+      </c>
       <c r="I534">
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>266</v>
       </c>
@@ -12510,11 +14111,14 @@
       <c r="F535" t="s">
         <v>71</v>
       </c>
+      <c r="G535" t="s">
+        <v>457</v>
+      </c>
       <c r="I535">
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>267</v>
       </c>
@@ -12530,11 +14134,14 @@
       <c r="F536" t="s">
         <v>160</v>
       </c>
+      <c r="G536" t="s">
+        <v>457</v>
+      </c>
       <c r="I536">
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>268</v>
       </c>
@@ -12550,11 +14157,14 @@
       <c r="F537" t="s">
         <v>194</v>
       </c>
+      <c r="G537" t="s">
+        <v>457</v>
+      </c>
       <c r="I537">
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>420</v>
       </c>
@@ -12570,11 +14180,14 @@
       <c r="F538" t="s">
         <v>254</v>
       </c>
+      <c r="G538" t="s">
+        <v>457</v>
+      </c>
       <c r="I538">
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>269</v>
       </c>
@@ -12590,11 +14203,14 @@
       <c r="F539" t="s">
         <v>209</v>
       </c>
+      <c r="G539" t="s">
+        <v>457</v>
+      </c>
       <c r="I539">
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>266</v>
       </c>
@@ -12610,11 +14226,14 @@
       <c r="F540" t="s">
         <v>248</v>
       </c>
+      <c r="G540" t="s">
+        <v>457</v>
+      </c>
       <c r="I540">
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>294</v>
       </c>
@@ -12630,11 +14249,14 @@
       <c r="F541" t="s">
         <v>71</v>
       </c>
+      <c r="G541" t="s">
+        <v>457</v>
+      </c>
       <c r="I541">
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>321</v>
       </c>
@@ -12650,11 +14272,14 @@
       <c r="F542" t="s">
         <v>74</v>
       </c>
+      <c r="G542" t="s">
+        <v>457</v>
+      </c>
       <c r="I542">
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>322</v>
       </c>
@@ -12670,11 +14295,14 @@
       <c r="F543" t="s">
         <v>254</v>
       </c>
+      <c r="G543" t="s">
+        <v>457</v>
+      </c>
       <c r="I543">
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>270</v>
       </c>
@@ -12690,11 +14318,14 @@
       <c r="F544" t="s">
         <v>209</v>
       </c>
+      <c r="G544" t="s">
+        <v>457</v>
+      </c>
       <c r="I544">
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>271</v>
       </c>
@@ -12710,11 +14341,14 @@
       <c r="F545" t="s">
         <v>151</v>
       </c>
+      <c r="G545" t="s">
+        <v>457</v>
+      </c>
       <c r="I545">
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>421</v>
       </c>
@@ -12730,11 +14364,14 @@
       <c r="F546" t="s">
         <v>160</v>
       </c>
+      <c r="G546" t="s">
+        <v>457</v>
+      </c>
       <c r="I546">
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>321</v>
       </c>
@@ -12750,11 +14387,14 @@
       <c r="F547" t="s">
         <v>74</v>
       </c>
+      <c r="G547" t="s">
+        <v>457</v>
+      </c>
       <c r="I547">
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>333</v>
       </c>
@@ -12770,11 +14410,14 @@
       <c r="F548" t="s">
         <v>74</v>
       </c>
+      <c r="G548" t="s">
+        <v>457</v>
+      </c>
       <c r="I548">
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>247</v>
       </c>
@@ -12790,11 +14433,14 @@
       <c r="F549" t="s">
         <v>248</v>
       </c>
+      <c r="G549" t="s">
+        <v>457</v>
+      </c>
       <c r="I549">
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>249</v>
       </c>
@@ -12810,11 +14456,14 @@
       <c r="F550" t="s">
         <v>151</v>
       </c>
+      <c r="G550" t="s">
+        <v>457</v>
+      </c>
       <c r="I550">
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>438</v>
       </c>
@@ -12830,11 +14479,14 @@
       <c r="F551" t="s">
         <v>153</v>
       </c>
+      <c r="G551" t="s">
+        <v>457</v>
+      </c>
       <c r="I551">
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>423</v>
       </c>
@@ -12850,11 +14502,14 @@
       <c r="F552" t="s">
         <v>155</v>
       </c>
+      <c r="G552" t="s">
+        <v>457</v>
+      </c>
       <c r="I552">
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>272</v>
       </c>
@@ -12870,11 +14525,14 @@
       <c r="F553" t="s">
         <v>155</v>
       </c>
+      <c r="G553" t="s">
+        <v>457</v>
+      </c>
       <c r="I553">
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>273</v>
       </c>
@@ -12890,11 +14548,14 @@
       <c r="F554" t="s">
         <v>191</v>
       </c>
+      <c r="G554" t="s">
+        <v>457</v>
+      </c>
       <c r="I554">
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>274</v>
       </c>
@@ -12910,11 +14571,14 @@
       <c r="F555" t="s">
         <v>191</v>
       </c>
+      <c r="G555" t="s">
+        <v>457</v>
+      </c>
       <c r="I555">
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>253</v>
       </c>
@@ -12930,11 +14594,14 @@
       <c r="F556" t="s">
         <v>23</v>
       </c>
+      <c r="G556" t="s">
+        <v>457</v>
+      </c>
       <c r="I556">
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>275</v>
       </c>
@@ -12950,11 +14617,14 @@
       <c r="F557" t="s">
         <v>16</v>
       </c>
+      <c r="G557" t="s">
+        <v>457</v>
+      </c>
       <c r="I557">
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>276</v>
       </c>
@@ -12970,11 +14640,14 @@
       <c r="F558" t="s">
         <v>71</v>
       </c>
+      <c r="G558" t="s">
+        <v>457</v>
+      </c>
       <c r="I558">
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>277</v>
       </c>
@@ -12990,11 +14663,14 @@
       <c r="F559" t="s">
         <v>160</v>
       </c>
+      <c r="G559" t="s">
+        <v>457</v>
+      </c>
       <c r="I559">
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>439</v>
       </c>
@@ -13010,11 +14686,14 @@
       <c r="F560" t="s">
         <v>194</v>
       </c>
+      <c r="G560" t="s">
+        <v>457</v>
+      </c>
       <c r="I560">
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>322</v>
       </c>
@@ -13030,11 +14709,14 @@
       <c r="F561" t="s">
         <v>254</v>
       </c>
+      <c r="G561" t="s">
+        <v>457</v>
+      </c>
       <c r="I561">
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>421</v>
       </c>
@@ -13050,11 +14732,14 @@
       <c r="F562" t="s">
         <v>74</v>
       </c>
+      <c r="G562" t="s">
+        <v>457</v>
+      </c>
       <c r="I562">
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>374</v>
       </c>
@@ -13070,11 +14755,14 @@
       <c r="F563" t="s">
         <v>209</v>
       </c>
+      <c r="G563" t="s">
+        <v>457</v>
+      </c>
       <c r="I563">
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>362</v>
       </c>
@@ -13088,11 +14776,14 @@
       <c r="F564" t="s">
         <v>74</v>
       </c>
+      <c r="G564" t="s">
+        <v>457</v>
+      </c>
       <c r="I564">
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>278</v>
       </c>
@@ -13106,11 +14797,14 @@
       <c r="F565" t="s">
         <v>248</v>
       </c>
+      <c r="G565" t="s">
+        <v>457</v>
+      </c>
       <c r="I565">
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>279</v>
       </c>
@@ -13124,11 +14818,14 @@
       <c r="F566" t="s">
         <v>151</v>
       </c>
+      <c r="G566" t="s">
+        <v>457</v>
+      </c>
       <c r="I566">
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>280</v>
       </c>
@@ -13142,11 +14839,14 @@
       <c r="F567" t="s">
         <v>153</v>
       </c>
+      <c r="G567" t="s">
+        <v>457</v>
+      </c>
       <c r="I567">
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>441</v>
       </c>
@@ -13160,11 +14860,14 @@
       <c r="F568" t="s">
         <v>155</v>
       </c>
+      <c r="G568" t="s">
+        <v>457</v>
+      </c>
       <c r="I568">
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>281</v>
       </c>
@@ -13178,6 +14881,9 @@
       <c r="F569" t="s">
         <v>191</v>
       </c>
+      <c r="G569" t="s">
+        <v>457</v>
+      </c>
       <c r="I569">
         <v>1</v>
       </c>
@@ -13196,11 +14902,14 @@
       <c r="F570" t="s">
         <v>23</v>
       </c>
+      <c r="G570" t="s">
+        <v>457</v>
+      </c>
       <c r="I570">
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>282</v>
       </c>
@@ -13216,11 +14925,14 @@
       <c r="F571" t="s">
         <v>16</v>
       </c>
+      <c r="G571" t="s">
+        <v>457</v>
+      </c>
       <c r="I571">
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>283</v>
       </c>
@@ -13234,11 +14946,14 @@
       <c r="F572" t="s">
         <v>16</v>
       </c>
+      <c r="G572" t="s">
+        <v>457</v>
+      </c>
       <c r="I572">
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>284</v>
       </c>
@@ -13252,11 +14967,14 @@
       <c r="F573" t="s">
         <v>71</v>
       </c>
+      <c r="G573" t="s">
+        <v>457</v>
+      </c>
       <c r="I573">
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>286</v>
       </c>
@@ -13270,11 +14988,14 @@
       <c r="F574" t="s">
         <v>160</v>
       </c>
+      <c r="G574" t="s">
+        <v>457</v>
+      </c>
       <c r="I574">
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>288</v>
       </c>
@@ -13288,11 +15009,14 @@
       <c r="F575" t="s">
         <v>194</v>
       </c>
+      <c r="G575" t="s">
+        <v>457</v>
+      </c>
       <c r="I575">
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>382</v>
       </c>
@@ -13306,11 +15030,14 @@
       <c r="F576" t="s">
         <v>254</v>
       </c>
+      <c r="G576" t="s">
+        <v>457</v>
+      </c>
       <c r="I576">
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>289</v>
       </c>
@@ -13324,11 +15051,14 @@
       <c r="F577" t="s">
         <v>209</v>
       </c>
+      <c r="G577" t="s">
+        <v>457</v>
+      </c>
       <c r="I577">
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>383</v>
       </c>
@@ -13342,18 +15072,15 @@
       <c r="F578" t="s">
         <v>290</v>
       </c>
+      <c r="G578" t="s">
+        <v>457</v>
+      </c>
       <c r="I578">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I578" xr:uid="{7A791307-92B1-4EBC-AA24-B3AE4E056C69}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="LARRANAGA, Jorge"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I578" xr:uid="{7A791307-92B1-4EBC-AA24-B3AE4E056C69}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>